--- a/GGFPortal/ExcelUpLoad/Salse/test12_13.xlsx
+++ b/GGFPortal/ExcelUpLoad/Salse/test12_13.xlsx
@@ -624,17 +624,17 @@
     <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="179" formatCode="#,##0_ "/>
     <numFmt numFmtId="180" formatCode="\+0_ ;[Red]\-0"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="184" formatCode="&quot;Ban&quot;\ 0\ &quot;班&quot;"/>
-    <numFmt numFmtId="185" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="186" formatCode="mm&quot;月&quot;dd&quot;日&quot;;@"/>
-    <numFmt numFmtId="187" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="188" formatCode="0_ "/>
-    <numFmt numFmtId="189" formatCode="\+0;[Red]\-0"/>
-    <numFmt numFmtId="190" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="191" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="192" formatCode="0.0%"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="183" formatCode="&quot;Ban&quot;\ 0\ &quot;班&quot;"/>
+    <numFmt numFmtId="184" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="185" formatCode="mm&quot;月&quot;dd&quot;日&quot;;@"/>
+    <numFmt numFmtId="186" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="187" formatCode="0_ "/>
+    <numFmt numFmtId="188" formatCode="\+0;[Red]\-0"/>
+    <numFmt numFmtId="189" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="190" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="191" formatCode="0.0%"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1479,28 +1479,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1539,21 +1521,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1618,15 +1585,14 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="182" fontId="16" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="16" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="20" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="20" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1636,22 +1602,22 @@
     <xf numFmtId="9" fontId="20" fillId="2" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="183" fontId="7" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="184" fontId="7" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="7" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="186" fontId="20" fillId="2" borderId="24" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="20" fillId="2" borderId="24" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="39" fontId="20" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1660,7 +1626,7 @@
     <xf numFmtId="39" fontId="20" fillId="2" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="187" fontId="23" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="23" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1669,7 +1635,7 @@
     <xf numFmtId="9" fontId="7" fillId="2" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="188" fontId="20" fillId="2" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="20" fillId="2" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="20" fillId="2" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1678,7 +1644,7 @@
     <xf numFmtId="3" fontId="20" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="189" fontId="20" fillId="2" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="20" fillId="2" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="2" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1687,7 +1653,7 @@
     <xf numFmtId="10" fontId="24" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="183" fontId="12" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="12" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="38" fontId="25" fillId="2" borderId="20" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1696,7 +1662,7 @@
     <xf numFmtId="179" fontId="7" fillId="2" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="190" fontId="7" fillId="2" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="7" fillId="2" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1708,101 +1674,71 @@
     <xf numFmtId="9" fontId="7" fillId="2" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="4" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="7" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="4" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="184" fontId="7" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="4" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="7" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="4" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="186" fontId="20" fillId="4" borderId="24" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="20" fillId="4" borderId="24" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="39" fontId="20" fillId="4" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="39" fontId="20" fillId="4" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="20" fillId="4" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="4" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="4" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="4" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="10" fontId="24" fillId="4" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="4" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="25" fillId="4" borderId="20" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="5" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="20" fillId="4" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="4" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="20" fillId="4" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="4" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="4" borderId="28" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="20" fillId="4" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="4" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="20" fillId="4" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="4" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="4" borderId="28" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="24" fillId="4" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="12" fillId="4" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="25" fillId="4" borderId="20" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="5" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="20" fillId="4" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="4" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="20" fillId="4" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="4" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="4" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="4" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="4" borderId="31" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="20" fillId="4" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="4" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="20" fillId="4" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="27" fillId="4" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1811,145 +1747,112 @@
     <xf numFmtId="179" fontId="7" fillId="4" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="190" fontId="7" fillId="4" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="7" fillId="4" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="4" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="4" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="28" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="28" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="183" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="2" borderId="30" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="28" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="30" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="20" fillId="2" borderId="30" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="20" fillId="2" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="20" fillId="2" borderId="33" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="20" fillId="2" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="20" fillId="2" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="2" borderId="30" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="20" fillId="2" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="2" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="20" fillId="2" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="20" fillId="2" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="27" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="2" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="28" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="25" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="25" fillId="4" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="25" fillId="4" borderId="10" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="37" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="7" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="184" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="2" borderId="30" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="28" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="30" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="20" fillId="2" borderId="30" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="20" fillId="2" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="20" fillId="2" borderId="33" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="2" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="20" fillId="2" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="2" borderId="30" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="189" fontId="20" fillId="2" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="24" fillId="2" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="20" fillId="2" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="2" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="27" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="2" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="4" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="20" fillId="4" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="34" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="4" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="28" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="20" fillId="4" borderId="35" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="36" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="4" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="25" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="25" fillId="4" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="35" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="4" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="25" fillId="4" borderId="10" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="37" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="7" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="9" fontId="7" fillId="2" borderId="38" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="188" fontId="20" fillId="2" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="20" fillId="2" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="12" fillId="2" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="12" fillId="2" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="2" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1958,16 +1861,16 @@
     <xf numFmtId="9" fontId="7" fillId="2" borderId="34" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="188" fontId="20" fillId="2" borderId="28" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="20" fillId="2" borderId="28" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="186" fontId="20" fillId="2" borderId="28" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="20" fillId="2" borderId="28" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="39" fontId="20" fillId="2" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1979,7 +1882,7 @@
     <xf numFmtId="3" fontId="20" fillId="2" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="190" fontId="20" fillId="0" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="20" fillId="0" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2038,19 +1941,19 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="191" fontId="30" fillId="7" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="30" fillId="7" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="7" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="7" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="191" fontId="30" fillId="7" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="30" fillId="7" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="20" fillId="7" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="20" fillId="7" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2059,22 +1962,119 @@
     <xf numFmtId="0" fontId="30" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="30" fillId="7" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="20" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="20" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="192" fontId="20" fillId="7" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="20" fillId="7" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="4" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="4" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="20" fillId="4" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="20" fillId="4" borderId="35" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="35" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="34" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="36" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="20" fillId="4" borderId="28" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="20" fillId="4" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="4" borderId="28" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="4" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="4" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="4" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="4" borderId="31" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="4" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="4" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="20" fillId="4" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="20" fillId="4" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -5796,5158 +5796,5169 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:28" ht="26.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="197"/>
+      <c r="T1" s="197"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" ht="27" thickBot="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:28" ht="26.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="22">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="202">
         <v>42717</v>
       </c>
-      <c r="U3" s="23"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="24" t="s">
+      <c r="U3" s="203"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="26"/>
+      <c r="X3" s="205"/>
+      <c r="Y3" s="205"/>
+      <c r="Z3" s="205"/>
+      <c r="AA3" s="205"/>
+      <c r="AB3" s="206"/>
     </row>
     <row r="4" spans="1:28" ht="81">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="37" t="s">
+      <c r="J4" s="25"/>
+      <c r="K4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="41" t="s">
+      <c r="O4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="42" t="s">
+      <c r="P4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="43" t="s">
+      <c r="Q4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="44"/>
-      <c r="S4" s="27" t="s">
+      <c r="R4" s="33"/>
+      <c r="S4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="45" t="s">
+      <c r="T4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="46" t="s">
+      <c r="U4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="47"/>
-      <c r="W4" s="48" t="s">
+      <c r="V4" s="36"/>
+      <c r="W4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="X4" s="49" t="s">
+      <c r="X4" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="Y4" s="50" t="s">
+      <c r="Y4" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" s="49" t="s">
+      <c r="Z4" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="AA4" s="49" t="s">
+      <c r="AA4" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="AB4" s="51" t="s">
+      <c r="AB4" s="40" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="207" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="207"/>
+      <c r="J5" s="207"/>
+      <c r="K5" s="207"/>
+      <c r="L5" s="207"/>
+      <c r="M5" s="207"/>
+      <c r="N5" s="207"/>
+      <c r="O5" s="207"/>
+      <c r="P5" s="207"/>
+      <c r="Q5" s="207"/>
+      <c r="R5" s="207"/>
+      <c r="S5" s="207"/>
+      <c r="T5" s="207"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="59">
+      <c r="C6" s="47">
         <v>41716306</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="48">
         <v>7056</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="49">
         <v>7056</v>
       </c>
-      <c r="F6" s="62">
+      <c r="F6" s="50">
         <v>42732</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="51">
         <v>42705</v>
       </c>
-      <c r="H6" s="64">
+      <c r="H6" s="52">
         <v>23.78</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="53">
         <v>27.315789473684212</v>
       </c>
-      <c r="J6" s="66">
+      <c r="J6" s="54">
         <v>254</v>
       </c>
-      <c r="K6" s="67">
+      <c r="K6" s="55">
         <v>9.5</v>
       </c>
-      <c r="L6" s="68">
+      <c r="L6" s="56">
         <v>1</v>
       </c>
-      <c r="M6" s="69">
+      <c r="M6" s="57">
         <f>H6/8*I6*K6</f>
         <v>771.3637500000001</v>
       </c>
-      <c r="N6" s="70">
+      <c r="N6" s="58">
         <v>542</v>
       </c>
-      <c r="O6" s="70">
+      <c r="O6" s="58">
         <v>6626</v>
       </c>
-      <c r="P6" s="71">
+      <c r="P6" s="59">
         <f t="shared" ref="P6:P58" si="0">N6+O6</f>
         <v>7168</v>
       </c>
-      <c r="Q6" s="72">
+      <c r="Q6" s="60">
         <f t="shared" ref="Q6:Q57" si="1">P6-E6</f>
         <v>112</v>
       </c>
-      <c r="R6" s="73">
+      <c r="R6" s="61">
         <f>N6/M6</f>
         <v>0.70265163484802073</v>
       </c>
-      <c r="S6" s="73">
+      <c r="S6" s="61">
         <f>N6/M6</f>
         <v>0.70265163484802073</v>
       </c>
-      <c r="T6" s="74">
+      <c r="T6" s="62">
         <v>0.16202090592334495</v>
       </c>
-      <c r="U6" s="75"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="77">
+      <c r="U6" s="63"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="65">
         <f>1150000/26/$I$58/10.5*K6*I6</f>
         <v>963.27835474318226</v>
       </c>
-      <c r="X6" s="78">
+      <c r="X6" s="66">
         <f>W6/N6*12</f>
         <v>21.327196045974517</v>
       </c>
-      <c r="Y6" s="79">
+      <c r="Y6" s="67">
         <f>VLOOKUP(C6,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>17</v>
       </c>
-      <c r="Z6" s="80">
+      <c r="Z6" s="68">
         <f t="shared" ref="Z6:Z56" si="2">N6/12*Y6</f>
         <v>767.83333333333326</v>
       </c>
-      <c r="AA6" s="80">
+      <c r="AA6" s="68">
         <f>Z6-W6</f>
         <v>-195.44502140984901</v>
       </c>
-      <c r="AB6" s="81">
+      <c r="AB6" s="69">
         <f>AA6/Z6</f>
         <v>-0.25454094388085396</v>
       </c>
     </row>
     <row r="7" spans="1:28">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="193" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="85">
+      <c r="D7" s="72">
         <v>1287</v>
       </c>
-      <c r="E7" s="86">
+      <c r="E7" s="73">
         <v>1287</v>
       </c>
-      <c r="F7" s="87">
+      <c r="F7" s="74">
         <v>42758</v>
       </c>
-      <c r="G7" s="88">
+      <c r="G7" s="75">
         <v>42717</v>
       </c>
-      <c r="H7" s="89">
+      <c r="H7" s="76">
         <v>18.309999999999999</v>
       </c>
-      <c r="I7" s="90">
+      <c r="I7" s="195">
         <v>25.5</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="54">
         <v>238</v>
       </c>
-      <c r="K7" s="91">
+      <c r="K7" s="209">
         <v>5.5</v>
       </c>
-      <c r="L7" s="92">
+      <c r="L7" s="191">
         <v>1</v>
       </c>
-      <c r="M7" s="93">
+      <c r="M7" s="185">
         <f>H7/8*I7*K7</f>
         <v>320.9971875</v>
       </c>
-      <c r="N7" s="94">
+      <c r="N7" s="77">
         <v>20</v>
       </c>
-      <c r="O7" s="94">
+      <c r="O7" s="77">
         <v>0</v>
       </c>
-      <c r="P7" s="95">
+      <c r="P7" s="78">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Q7" s="96">
+      <c r="Q7" s="79">
         <f t="shared" si="1"/>
         <v>-1267</v>
       </c>
-      <c r="R7" s="97">
+      <c r="R7" s="80">
         <f>N7/M7</f>
         <v>6.2305841854143972E-2</v>
       </c>
-      <c r="S7" s="98">
+      <c r="S7" s="187">
         <f>(N7+N8)/M7</f>
         <v>0.80374535991845719</v>
       </c>
-      <c r="T7" s="99">
+      <c r="T7" s="81">
         <v>0</v>
       </c>
-      <c r="U7" s="100"/>
-      <c r="V7" s="101" t="s">
+      <c r="U7" s="82"/>
+      <c r="V7" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="102">
+      <c r="W7" s="84">
         <f>1150000/26/$I$58/10.5*K7*I7</f>
         <v>520.6157581993499</v>
       </c>
-      <c r="X7" s="103">
+      <c r="X7" s="85">
         <f>W7/(N7+N8)*12</f>
         <v>24.214686427876735</v>
       </c>
-      <c r="Y7" s="104">
+      <c r="Y7" s="86">
         <v>28</v>
       </c>
-      <c r="Z7" s="105">
+      <c r="Z7" s="87">
         <f t="shared" si="2"/>
         <v>46.666666666666671</v>
       </c>
-      <c r="AA7" s="106">
+      <c r="AA7" s="88">
         <f>Z7+Z8-W7</f>
         <v>81.384241800649988</v>
       </c>
-      <c r="AB7" s="107">
+      <c r="AB7" s="89">
         <f>AA7/(Z7+Z8)</f>
         <v>0.13518977043297342</v>
       </c>
     </row>
     <row r="8" spans="1:28">
-      <c r="A8" s="108"/>
-      <c r="B8" s="83" t="s">
+      <c r="A8" s="208"/>
+      <c r="B8" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D8" s="72">
         <v>5796</v>
       </c>
-      <c r="E8" s="86">
+      <c r="E8" s="73">
         <v>5796</v>
       </c>
-      <c r="F8" s="87">
+      <c r="F8" s="74">
         <v>42720</v>
       </c>
-      <c r="G8" s="88">
+      <c r="G8" s="75">
         <v>42704</v>
       </c>
-      <c r="H8" s="89">
+      <c r="H8" s="76">
         <v>18.309999999999999</v>
       </c>
-      <c r="I8" s="90"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="94">
+      <c r="I8" s="195"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="209"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="186"/>
+      <c r="N8" s="77">
         <v>238</v>
       </c>
-      <c r="O8" s="94">
+      <c r="O8" s="77">
         <v>5620</v>
       </c>
-      <c r="P8" s="95">
+      <c r="P8" s="78">
         <f t="shared" si="0"/>
         <v>5858</v>
       </c>
-      <c r="Q8" s="96">
+      <c r="Q8" s="79">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="R8" s="97">
+      <c r="R8" s="80">
         <f>N8/M7</f>
         <v>0.7414395180643133</v>
       </c>
-      <c r="S8" s="110"/>
-      <c r="T8" s="99">
+      <c r="S8" s="192"/>
+      <c r="T8" s="81">
         <v>0.10866574965612105</v>
       </c>
-      <c r="U8" s="100"/>
-      <c r="V8" s="101"/>
-      <c r="W8" s="111"/>
-      <c r="X8" s="111"/>
-      <c r="Y8" s="104">
+      <c r="U8" s="82"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="86">
         <f>VLOOKUP(C8,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>28</v>
       </c>
-      <c r="Z8" s="105">
+      <c r="Z8" s="87">
         <f t="shared" si="2"/>
         <v>555.33333333333326</v>
       </c>
-      <c r="AA8" s="111"/>
-      <c r="AB8" s="111"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="90"/>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="112"/>
-      <c r="B9" s="83" t="s">
+      <c r="A9" s="194"/>
+      <c r="B9" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="72">
         <v>5292</v>
       </c>
-      <c r="E9" s="86">
+      <c r="E9" s="73">
         <v>5335</v>
       </c>
-      <c r="F9" s="87">
+      <c r="F9" s="74">
         <v>42695</v>
       </c>
-      <c r="G9" s="88">
+      <c r="G9" s="75">
         <v>42689</v>
       </c>
-      <c r="H9" s="89">
+      <c r="H9" s="76">
         <v>27.09</v>
       </c>
-      <c r="I9" s="90"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="113">
+      <c r="I9" s="195"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="91">
         <v>4</v>
       </c>
-      <c r="L9" s="92"/>
-      <c r="M9" s="114">
+      <c r="L9" s="191"/>
+      <c r="M9" s="92">
         <f>H9/8*I7*K9</f>
         <v>345.39749999999998</v>
       </c>
-      <c r="N9" s="94">
+      <c r="N9" s="77">
         <v>160</v>
       </c>
-      <c r="O9" s="94">
+      <c r="O9" s="77">
         <v>5089</v>
       </c>
-      <c r="P9" s="95">
+      <c r="P9" s="78">
         <f t="shared" si="0"/>
         <v>5249</v>
       </c>
-      <c r="Q9" s="96">
+      <c r="Q9" s="79">
         <f t="shared" si="1"/>
         <v>-86</v>
       </c>
-      <c r="R9" s="97">
+      <c r="R9" s="80">
         <f t="shared" ref="R9:R24" si="3">N9/M9</f>
         <v>0.46323438936298034</v>
       </c>
-      <c r="S9" s="115">
+      <c r="S9" s="93">
         <f>N9/M9</f>
         <v>0.46323438936298034</v>
       </c>
-      <c r="T9" s="99">
+      <c r="T9" s="81">
         <v>0</v>
       </c>
-      <c r="U9" s="100" t="s">
+      <c r="U9" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V9" s="101"/>
-      <c r="W9" s="116">
+      <c r="V9" s="83"/>
+      <c r="W9" s="94">
         <f>1150000/26/$I$58/10.5*K9*I7</f>
         <v>378.62964232679991</v>
       </c>
-      <c r="X9" s="117">
+      <c r="X9" s="95">
         <f t="shared" ref="X9:X39" si="4">W9/N9*12</f>
         <v>28.397223174509996</v>
       </c>
-      <c r="Y9" s="104">
+      <c r="Y9" s="86">
         <v>17</v>
       </c>
-      <c r="Z9" s="105">
+      <c r="Z9" s="87">
         <f t="shared" si="2"/>
         <v>226.66666666666669</v>
       </c>
-      <c r="AA9" s="105">
+      <c r="AA9" s="87">
         <f>Z9-W9</f>
         <v>-151.96297566013322</v>
       </c>
-      <c r="AB9" s="118">
+      <c r="AB9" s="96">
         <f>AA9/Z9</f>
         <v>-0.67042489261823479</v>
       </c>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="48">
         <v>41512</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="49">
         <v>20000</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="50">
         <v>42729</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="51">
         <v>42706</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10" s="52">
         <v>51.43</v>
       </c>
-      <c r="I10" s="65">
+      <c r="I10" s="53">
         <v>27</v>
       </c>
-      <c r="J10" s="66">
+      <c r="J10" s="54">
         <v>267</v>
       </c>
-      <c r="K10" s="67">
+      <c r="K10" s="55">
         <v>9.5</v>
       </c>
-      <c r="L10" s="68">
+      <c r="L10" s="56">
         <v>1</v>
       </c>
-      <c r="M10" s="69">
+      <c r="M10" s="57">
         <f>H10/8*I10*K10</f>
         <v>1648.9743749999998</v>
       </c>
-      <c r="N10" s="70">
+      <c r="N10" s="58">
         <v>1750</v>
       </c>
-      <c r="O10" s="70">
+      <c r="O10" s="58">
         <v>13280</v>
       </c>
-      <c r="P10" s="71">
+      <c r="P10" s="59">
         <f t="shared" si="0"/>
         <v>15030</v>
       </c>
-      <c r="Q10" s="72">
+      <c r="Q10" s="60">
         <f t="shared" si="1"/>
         <v>-4970</v>
       </c>
-      <c r="R10" s="73">
+      <c r="R10" s="61">
         <f t="shared" si="3"/>
         <v>1.0612657337382823</v>
       </c>
-      <c r="S10" s="73">
+      <c r="S10" s="61">
         <f>N10/M10</f>
         <v>1.0612657337382823</v>
       </c>
-      <c r="T10" s="74">
+      <c r="T10" s="62">
         <v>9.27734375E-2</v>
       </c>
-      <c r="U10" s="75"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="77">
+      <c r="U10" s="63"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="65">
         <f>1150000/26/$I$58/10.5*K10*I10</f>
         <v>952.14218879239399</v>
       </c>
-      <c r="X10" s="78">
+      <c r="X10" s="66">
         <f t="shared" si="4"/>
         <v>6.5289750088621306</v>
       </c>
-      <c r="Y10" s="79">
+      <c r="Y10" s="67">
         <v>9</v>
       </c>
-      <c r="Z10" s="80">
+      <c r="Z10" s="68">
         <f t="shared" si="2"/>
         <v>1312.5</v>
       </c>
-      <c r="AA10" s="80">
+      <c r="AA10" s="68">
         <f t="shared" ref="AA10:AA39" si="5">Z10-W10</f>
         <v>360.35781120760601</v>
       </c>
-      <c r="AB10" s="81">
+      <c r="AB10" s="69">
         <f t="shared" ref="AB10:AB39" si="6">AA10/Z10</f>
         <v>0.27455833234865218</v>
       </c>
     </row>
     <row r="11" spans="1:28">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="72">
         <v>3246</v>
       </c>
-      <c r="E11" s="86">
+      <c r="E11" s="73">
         <v>3246</v>
       </c>
-      <c r="F11" s="87">
+      <c r="F11" s="74">
         <v>42732</v>
       </c>
-      <c r="G11" s="88">
+      <c r="G11" s="75">
         <v>42717</v>
       </c>
-      <c r="H11" s="89">
+      <c r="H11" s="76">
         <v>26.37</v>
       </c>
-      <c r="I11" s="90">
+      <c r="I11" s="195">
         <v>23</v>
       </c>
-      <c r="J11" s="66">
+      <c r="J11" s="54">
         <v>231</v>
       </c>
-      <c r="K11" s="113">
+      <c r="K11" s="91">
         <v>3</v>
       </c>
-      <c r="L11" s="92">
+      <c r="L11" s="191">
         <v>1</v>
       </c>
-      <c r="M11" s="114">
+      <c r="M11" s="92">
         <f>H11/8*I11*K11</f>
         <v>227.44125</v>
       </c>
-      <c r="N11" s="94">
+      <c r="N11" s="77">
         <v>633</v>
       </c>
-      <c r="O11" s="94">
+      <c r="O11" s="77">
         <v>0</v>
       </c>
-      <c r="P11" s="95">
+      <c r="P11" s="78">
         <f t="shared" si="0"/>
         <v>633</v>
       </c>
-      <c r="Q11" s="96">
+      <c r="Q11" s="79">
         <f t="shared" si="1"/>
         <v>-2613</v>
       </c>
-      <c r="R11" s="97">
+      <c r="R11" s="80">
         <f t="shared" si="3"/>
         <v>2.7831363044302648</v>
       </c>
-      <c r="S11" s="119">
+      <c r="S11" s="189">
         <f>R11*K11/9.5+R12*K12/9.5</f>
         <v>1.0873548547331029</v>
       </c>
-      <c r="T11" s="99">
+      <c r="T11" s="81">
         <v>0</v>
       </c>
-      <c r="U11" s="100"/>
-      <c r="V11" s="101"/>
-      <c r="W11" s="102">
+      <c r="U11" s="82"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="84">
         <f>1150000/26/$I$58/10.5*K11*I11</f>
         <v>256.13181686812936</v>
       </c>
-      <c r="X11" s="117">
+      <c r="X11" s="95">
         <f t="shared" si="4"/>
         <v>4.8555794666943957</v>
       </c>
-      <c r="Y11" s="104">
+      <c r="Y11" s="86">
         <v>13</v>
       </c>
-      <c r="Z11" s="105">
+      <c r="Z11" s="87">
         <f t="shared" si="2"/>
         <v>685.75</v>
       </c>
-      <c r="AA11" s="105">
+      <c r="AA11" s="87">
         <f t="shared" si="5"/>
         <v>429.61818313187064</v>
       </c>
-      <c r="AB11" s="118">
+      <c r="AB11" s="96">
         <f t="shared" si="6"/>
         <v>0.62649388717735421</v>
       </c>
     </row>
     <row r="12" spans="1:28">
-      <c r="A12" s="112"/>
-      <c r="B12" s="83" t="s">
+      <c r="A12" s="194"/>
+      <c r="B12" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="72">
         <v>3438</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="73">
         <v>3438</v>
       </c>
-      <c r="F12" s="87">
+      <c r="F12" s="74">
         <v>42732</v>
       </c>
-      <c r="G12" s="88">
+      <c r="G12" s="75">
         <v>42712</v>
       </c>
-      <c r="H12" s="89">
+      <c r="H12" s="76">
         <v>29.33</v>
       </c>
-      <c r="I12" s="90"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="113">
+      <c r="I12" s="195"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="91">
         <v>6.5</v>
       </c>
-      <c r="L12" s="92"/>
-      <c r="M12" s="114">
+      <c r="L12" s="191"/>
+      <c r="M12" s="92">
         <f>H12/8*I11*K12</f>
         <v>548.10437499999989</v>
       </c>
-      <c r="N12" s="94">
+      <c r="N12" s="77">
         <v>167</v>
       </c>
-      <c r="O12" s="94">
+      <c r="O12" s="77">
         <v>2880</v>
       </c>
-      <c r="P12" s="95">
+      <c r="P12" s="78">
         <f t="shared" si="0"/>
         <v>3047</v>
       </c>
-      <c r="Q12" s="96">
+      <c r="Q12" s="79">
         <f t="shared" si="1"/>
         <v>-391</v>
       </c>
-      <c r="R12" s="97">
+      <c r="R12" s="80">
         <f t="shared" si="3"/>
         <v>0.30468649333441289</v>
       </c>
-      <c r="S12" s="119"/>
-      <c r="T12" s="99">
+      <c r="S12" s="189"/>
+      <c r="T12" s="81">
         <v>7.8979343863912518E-2</v>
       </c>
-      <c r="U12" s="100"/>
-      <c r="V12" s="101"/>
-      <c r="W12" s="116">
+      <c r="U12" s="82"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="94">
         <f>1150000/26/$I$58/10.5*K12*I10</f>
         <v>651.46570812111167</v>
       </c>
-      <c r="X12" s="117">
+      <c r="X12" s="95">
         <f t="shared" si="4"/>
         <v>46.811907170379286</v>
       </c>
-      <c r="Y12" s="104">
+      <c r="Y12" s="86">
         <f>VLOOKUP(C12,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>13</v>
       </c>
-      <c r="Z12" s="105">
+      <c r="Z12" s="87">
         <f t="shared" si="2"/>
         <v>180.91666666666666</v>
       </c>
-      <c r="AA12" s="105">
+      <c r="AA12" s="87">
         <f t="shared" si="5"/>
         <v>-470.54904145444505</v>
       </c>
-      <c r="AB12" s="118">
+      <c r="AB12" s="96">
         <f t="shared" si="6"/>
         <v>-2.6009159361830219</v>
       </c>
     </row>
     <row r="13" spans="1:28">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="48">
         <v>72396</v>
       </c>
-      <c r="E13" s="120">
+      <c r="E13" s="97">
         <v>14396</v>
       </c>
-      <c r="F13" s="62">
+      <c r="F13" s="50">
         <v>42730</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="51">
         <v>42703</v>
       </c>
-      <c r="H13" s="64">
+      <c r="H13" s="52">
         <v>25.46</v>
       </c>
-      <c r="I13" s="65">
+      <c r="I13" s="53">
         <v>29</v>
       </c>
-      <c r="J13" s="66">
+      <c r="J13" s="54">
         <v>280.5</v>
       </c>
-      <c r="K13" s="67">
+      <c r="K13" s="55">
         <v>9.5</v>
       </c>
-      <c r="L13" s="68">
+      <c r="L13" s="56">
         <v>1</v>
       </c>
-      <c r="M13" s="69">
+      <c r="M13" s="57">
         <f t="shared" ref="M13:M25" si="7">H13/8*I13*K13</f>
         <v>876.77875000000006</v>
       </c>
-      <c r="N13" s="70">
+      <c r="N13" s="58">
         <v>950</v>
       </c>
-      <c r="O13" s="70">
+      <c r="O13" s="58">
         <v>10596</v>
       </c>
-      <c r="P13" s="71">
+      <c r="P13" s="59">
         <f t="shared" si="0"/>
         <v>11546</v>
       </c>
-      <c r="Q13" s="72">
+      <c r="Q13" s="60">
         <f t="shared" si="1"/>
         <v>-2850</v>
       </c>
-      <c r="R13" s="73">
+      <c r="R13" s="61">
         <f t="shared" si="3"/>
         <v>1.0835116612942546</v>
       </c>
-      <c r="S13" s="73">
+      <c r="S13" s="61">
         <f t="shared" ref="S13:S24" si="8">N13/M13</f>
         <v>1.0835116612942546</v>
       </c>
-      <c r="T13" s="74">
+      <c r="T13" s="62">
         <v>0.11259382819015847</v>
       </c>
-      <c r="U13" s="75"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="77">
+      <c r="U13" s="63"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="65">
         <f t="shared" ref="W13:W25" si="9">1150000/26/$I$58/10.5*K13*I13</f>
         <v>1022.6712398140528</v>
       </c>
-      <c r="X13" s="78">
+      <c r="X13" s="66">
         <f t="shared" si="4"/>
         <v>12.917952502914352</v>
       </c>
-      <c r="Y13" s="79">
+      <c r="Y13" s="67">
         <f>VLOOKUP(C13,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>16.5</v>
       </c>
-      <c r="Z13" s="80">
+      <c r="Z13" s="68">
         <f t="shared" si="2"/>
         <v>1306.25</v>
       </c>
-      <c r="AA13" s="80">
+      <c r="AA13" s="68">
         <f t="shared" si="5"/>
         <v>283.5787601859472</v>
       </c>
-      <c r="AB13" s="81">
+      <c r="AB13" s="69">
         <f t="shared" si="6"/>
         <v>0.21709378770216053</v>
       </c>
     </row>
     <row r="14" spans="1:28">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="59">
+      <c r="C14" s="47">
         <v>16634</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="48">
         <v>11592</v>
       </c>
-      <c r="E14" s="120">
+      <c r="E14" s="97">
         <v>3907</v>
       </c>
-      <c r="F14" s="62">
+      <c r="F14" s="50">
         <v>42732</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="51">
         <v>42712</v>
       </c>
-      <c r="H14" s="64">
+      <c r="H14" s="52">
         <v>17.16</v>
       </c>
-      <c r="I14" s="65">
+      <c r="I14" s="53">
         <v>25</v>
       </c>
-      <c r="J14" s="66">
+      <c r="J14" s="54">
         <v>249</v>
       </c>
-      <c r="K14" s="67">
+      <c r="K14" s="55">
         <v>9.5</v>
       </c>
-      <c r="L14" s="68">
+      <c r="L14" s="56">
         <v>1</v>
       </c>
-      <c r="M14" s="69">
+      <c r="M14" s="57">
         <f t="shared" si="7"/>
         <v>509.4375</v>
       </c>
-      <c r="N14" s="70">
+      <c r="N14" s="58">
         <v>450</v>
       </c>
-      <c r="O14" s="70">
+      <c r="O14" s="58">
         <v>1464</v>
       </c>
-      <c r="P14" s="71">
+      <c r="P14" s="59">
         <f t="shared" si="0"/>
         <v>1914</v>
       </c>
-      <c r="Q14" s="72">
+      <c r="Q14" s="60">
         <f t="shared" si="1"/>
         <v>-1993</v>
       </c>
-      <c r="R14" s="73">
+      <c r="R14" s="61">
         <f t="shared" si="3"/>
         <v>0.88332719911667279</v>
       </c>
-      <c r="S14" s="73">
+      <c r="S14" s="61">
         <f t="shared" si="8"/>
         <v>0.88332719911667279</v>
       </c>
-      <c r="T14" s="74">
+      <c r="T14" s="62">
         <v>0.17777777777777778</v>
       </c>
-      <c r="U14" s="75"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="77">
+      <c r="U14" s="63"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="65">
         <f t="shared" si="9"/>
         <v>881.61313777073519</v>
       </c>
-      <c r="X14" s="78">
+      <c r="X14" s="66">
         <f t="shared" si="4"/>
         <v>23.509683673886272</v>
       </c>
-      <c r="Y14" s="79">
+      <c r="Y14" s="67">
         <f>VLOOKUP(C14,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>20</v>
       </c>
-      <c r="Z14" s="80">
+      <c r="Z14" s="68">
         <f t="shared" si="2"/>
         <v>750</v>
       </c>
-      <c r="AA14" s="80">
+      <c r="AA14" s="68">
         <f t="shared" si="5"/>
         <v>-131.61313777073519</v>
       </c>
-      <c r="AB14" s="81">
+      <c r="AB14" s="69">
         <f t="shared" si="6"/>
         <v>-0.17548418369431359</v>
       </c>
     </row>
     <row r="15" spans="1:28">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="48">
         <v>8814</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="49">
         <v>9035</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="50">
         <v>42732</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="51">
         <v>42698</v>
       </c>
-      <c r="H15" s="64">
+      <c r="H15" s="52">
         <v>19.899999999999999</v>
       </c>
-      <c r="I15" s="65">
+      <c r="I15" s="53">
         <v>28</v>
       </c>
-      <c r="J15" s="66">
+      <c r="J15" s="54">
         <v>276.5</v>
       </c>
-      <c r="K15" s="67">
+      <c r="K15" s="55">
         <v>9.5</v>
       </c>
-      <c r="L15" s="68">
+      <c r="L15" s="56">
         <v>1</v>
       </c>
-      <c r="M15" s="69">
+      <c r="M15" s="57">
         <f t="shared" si="7"/>
         <v>661.67499999999995</v>
       </c>
-      <c r="N15" s="70">
+      <c r="N15" s="58">
         <v>700</v>
       </c>
-      <c r="O15" s="70">
+      <c r="O15" s="58">
         <v>8335</v>
       </c>
-      <c r="P15" s="71">
+      <c r="P15" s="59">
         <f t="shared" si="0"/>
         <v>9035</v>
       </c>
-      <c r="Q15" s="72">
+      <c r="Q15" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R15" s="73">
+      <c r="R15" s="61">
         <f t="shared" si="3"/>
         <v>1.0579211848717271</v>
       </c>
-      <c r="S15" s="73">
+      <c r="S15" s="61">
         <f t="shared" si="8"/>
         <v>1.0579211848717271</v>
       </c>
-      <c r="T15" s="74">
+      <c r="T15" s="62">
         <v>0.15957446808510639</v>
       </c>
-      <c r="U15" s="75"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="77">
+      <c r="U15" s="63"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="65">
         <f t="shared" si="9"/>
         <v>987.40671430322345</v>
       </c>
-      <c r="X15" s="78">
+      <c r="X15" s="66">
         <f t="shared" si="4"/>
         <v>16.926972245198115</v>
       </c>
-      <c r="Y15" s="79">
+      <c r="Y15" s="67">
         <f>VLOOKUP(C15,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>17</v>
       </c>
-      <c r="Z15" s="80">
+      <c r="Z15" s="68">
         <f t="shared" si="2"/>
         <v>991.66666666666674</v>
       </c>
-      <c r="AA15" s="80">
+      <c r="AA15" s="68">
         <f t="shared" si="5"/>
         <v>4.2599523634432899</v>
       </c>
-      <c r="AB15" s="81">
+      <c r="AB15" s="69">
         <f t="shared" si="6"/>
         <v>4.2957502824638215E-3</v>
       </c>
     </row>
     <row r="16" spans="1:28">
-      <c r="A16" s="121" t="s">
+      <c r="A16" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="123">
+      <c r="C16" s="100">
         <v>16634</v>
       </c>
-      <c r="D16" s="124">
+      <c r="D16" s="101">
         <v>11592</v>
       </c>
-      <c r="E16" s="125">
+      <c r="E16" s="102">
         <v>3912</v>
       </c>
-      <c r="F16" s="126">
+      <c r="F16" s="103">
         <v>42732</v>
       </c>
-      <c r="G16" s="127">
+      <c r="G16" s="104">
         <v>42706</v>
       </c>
-      <c r="H16" s="128">
+      <c r="H16" s="105">
         <v>17.16</v>
       </c>
-      <c r="I16" s="129">
+      <c r="I16" s="106">
         <v>22</v>
       </c>
-      <c r="J16" s="66">
+      <c r="J16" s="54">
         <v>228</v>
       </c>
-      <c r="K16" s="130">
+      <c r="K16" s="107">
         <v>9.5</v>
       </c>
-      <c r="L16" s="131">
+      <c r="L16" s="108">
         <v>1</v>
       </c>
-      <c r="M16" s="132">
+      <c r="M16" s="109">
         <f t="shared" si="7"/>
         <v>448.30499999999995</v>
       </c>
-      <c r="N16" s="133">
+      <c r="N16" s="110">
         <v>450</v>
       </c>
-      <c r="O16" s="133">
+      <c r="O16" s="110">
         <v>3520</v>
       </c>
-      <c r="P16" s="134">
+      <c r="P16" s="111">
         <f t="shared" si="0"/>
         <v>3970</v>
       </c>
-      <c r="Q16" s="135">
+      <c r="Q16" s="112">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="R16" s="136">
+      <c r="R16" s="113">
         <f t="shared" si="3"/>
         <v>1.0037809080871283</v>
       </c>
-      <c r="S16" s="136">
+      <c r="S16" s="113">
         <f t="shared" si="8"/>
         <v>1.0037809080871283</v>
       </c>
-      <c r="T16" s="137">
+      <c r="T16" s="114">
         <v>0.17777777777777778</v>
       </c>
-      <c r="U16" s="75"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="77">
+      <c r="U16" s="63"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="65">
         <f t="shared" si="9"/>
         <v>775.81956123824693</v>
       </c>
-      <c r="X16" s="78">
+      <c r="X16" s="66">
         <f t="shared" si="4"/>
         <v>20.688521633019917</v>
       </c>
-      <c r="Y16" s="79">
+      <c r="Y16" s="67">
         <f>VLOOKUP(C16,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>20</v>
       </c>
-      <c r="Z16" s="80">
+      <c r="Z16" s="68">
         <f t="shared" si="2"/>
         <v>750</v>
       </c>
-      <c r="AA16" s="80">
+      <c r="AA16" s="68">
         <f t="shared" si="5"/>
         <v>-25.819561238246933</v>
       </c>
-      <c r="AB16" s="81">
+      <c r="AB16" s="69">
         <f t="shared" si="6"/>
         <v>-3.4426081650995914E-2</v>
       </c>
     </row>
     <row r="17" spans="1:28">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="59">
+      <c r="C17" s="47">
         <v>16632</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="48">
         <v>7728</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17" s="49">
         <v>7728</v>
       </c>
-      <c r="F17" s="62">
+      <c r="F17" s="50">
         <v>42732</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="51">
         <v>42707</v>
       </c>
-      <c r="H17" s="64">
+      <c r="H17" s="52">
         <v>20.13</v>
       </c>
-      <c r="I17" s="138">
+      <c r="I17" s="115">
         <v>24</v>
       </c>
-      <c r="J17" s="66">
+      <c r="J17" s="54">
         <v>230.5</v>
       </c>
-      <c r="K17" s="139">
+      <c r="K17" s="116">
         <v>9.5</v>
       </c>
-      <c r="L17" s="68">
+      <c r="L17" s="56">
         <v>1</v>
       </c>
-      <c r="M17" s="69">
+      <c r="M17" s="57">
         <f t="shared" si="7"/>
         <v>573.70500000000004</v>
       </c>
-      <c r="N17" s="70">
+      <c r="N17" s="58">
         <v>670</v>
       </c>
-      <c r="O17" s="70">
+      <c r="O17" s="58">
         <v>4900</v>
       </c>
-      <c r="P17" s="71">
+      <c r="P17" s="59">
         <f t="shared" si="0"/>
         <v>5570</v>
       </c>
-      <c r="Q17" s="72">
+      <c r="Q17" s="60">
         <f t="shared" si="1"/>
         <v>-2158</v>
       </c>
-      <c r="R17" s="73">
+      <c r="R17" s="61">
         <f t="shared" si="3"/>
         <v>1.167847587174593</v>
       </c>
-      <c r="S17" s="73">
+      <c r="S17" s="61">
         <f t="shared" si="8"/>
         <v>1.167847587174593</v>
       </c>
-      <c r="T17" s="74">
+      <c r="T17" s="62">
         <v>0.2228</v>
       </c>
-      <c r="U17" s="75"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="77">
+      <c r="U17" s="63"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="65">
         <f t="shared" si="9"/>
         <v>846.34861225990585</v>
       </c>
-      <c r="X17" s="78">
+      <c r="X17" s="66">
         <f t="shared" si="4"/>
         <v>15.158482607640106</v>
       </c>
-      <c r="Y17" s="79">
+      <c r="Y17" s="67">
         <f>VLOOKUP(C17,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>17</v>
       </c>
-      <c r="Z17" s="80">
+      <c r="Z17" s="68">
         <f t="shared" si="2"/>
         <v>949.16666666666674</v>
       </c>
-      <c r="AA17" s="80">
+      <c r="AA17" s="68">
         <f t="shared" si="5"/>
         <v>102.81805440676089</v>
       </c>
-      <c r="AB17" s="81">
+      <c r="AB17" s="69">
         <f t="shared" si="6"/>
         <v>0.10832455249175861</v>
       </c>
     </row>
     <row r="18" spans="1:28">
-      <c r="A18" s="121" t="s">
+      <c r="A18" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="59">
+      <c r="C18" s="47">
         <v>41716321</v>
       </c>
-      <c r="D18" s="60">
+      <c r="D18" s="48">
         <v>11850</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="49">
         <v>5000</v>
       </c>
-      <c r="F18" s="62">
+      <c r="F18" s="50">
         <v>42732</v>
       </c>
-      <c r="G18" s="63">
+      <c r="G18" s="51">
         <v>42710</v>
       </c>
-      <c r="H18" s="64">
+      <c r="H18" s="52">
         <v>16.579999999999998</v>
       </c>
-      <c r="I18" s="138">
+      <c r="I18" s="115">
         <v>24.842105263157894</v>
       </c>
-      <c r="J18" s="66">
+      <c r="J18" s="54">
         <v>247</v>
       </c>
-      <c r="K18" s="139">
+      <c r="K18" s="116">
         <v>9.5</v>
       </c>
-      <c r="L18" s="68">
+      <c r="L18" s="56">
         <v>1</v>
       </c>
-      <c r="M18" s="140">
+      <c r="M18" s="117">
         <f t="shared" si="7"/>
         <v>489.1099999999999</v>
       </c>
-      <c r="N18" s="70">
+      <c r="N18" s="58">
         <v>520</v>
       </c>
-      <c r="O18" s="70">
+      <c r="O18" s="58">
         <v>2682</v>
       </c>
-      <c r="P18" s="71">
+      <c r="P18" s="59">
         <f t="shared" si="0"/>
         <v>3202</v>
       </c>
-      <c r="Q18" s="72">
+      <c r="Q18" s="60">
         <f t="shared" si="1"/>
         <v>-1798</v>
       </c>
-      <c r="R18" s="73">
+      <c r="R18" s="61">
         <f t="shared" si="3"/>
         <v>1.0631555273864777</v>
       </c>
-      <c r="S18" s="73">
+      <c r="S18" s="61">
         <f t="shared" si="8"/>
         <v>1.0631555273864777</v>
       </c>
-      <c r="T18" s="74">
+      <c r="T18" s="62">
         <v>0.12043301759133965</v>
       </c>
-      <c r="U18" s="75"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="77">
+      <c r="U18" s="63"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="65">
         <f t="shared" si="9"/>
         <v>876.045054795341</v>
       </c>
-      <c r="X18" s="78">
+      <c r="X18" s="66">
         <f t="shared" si="4"/>
         <v>20.216424341430947</v>
       </c>
-      <c r="Y18" s="79">
+      <c r="Y18" s="67">
         <f>VLOOKUP(C18,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>17.5</v>
       </c>
-      <c r="Z18" s="80">
+      <c r="Z18" s="68">
         <f t="shared" si="2"/>
         <v>758.33333333333337</v>
       </c>
-      <c r="AA18" s="80">
+      <c r="AA18" s="68">
         <f t="shared" si="5"/>
         <v>-117.71172146200763</v>
       </c>
-      <c r="AB18" s="81">
+      <c r="AB18" s="69">
         <f t="shared" si="6"/>
         <v>-0.1552242480817683</v>
       </c>
     </row>
     <row r="19" spans="1:28">
-      <c r="A19" s="121" t="s">
+      <c r="A19" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D19" s="48">
         <v>3318</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="49">
         <v>3318</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="50">
         <v>42732</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="51">
         <v>42713</v>
       </c>
-      <c r="H19" s="141">
+      <c r="H19" s="118">
         <v>14.91</v>
       </c>
-      <c r="I19" s="138">
+      <c r="I19" s="115">
         <v>26.842105263157894</v>
       </c>
-      <c r="J19" s="66">
+      <c r="J19" s="54">
         <v>249</v>
       </c>
-      <c r="K19" s="139">
+      <c r="K19" s="116">
         <v>9.5</v>
       </c>
-      <c r="L19" s="68">
+      <c r="L19" s="56">
         <v>1</v>
       </c>
-      <c r="M19" s="140">
+      <c r="M19" s="117">
         <f t="shared" si="7"/>
         <v>475.25624999999997</v>
       </c>
-      <c r="N19" s="70">
+      <c r="N19" s="58">
         <v>300</v>
       </c>
-      <c r="O19" s="70">
+      <c r="O19" s="58">
         <v>737</v>
       </c>
-      <c r="P19" s="71">
+      <c r="P19" s="59">
         <f t="shared" si="0"/>
         <v>1037</v>
       </c>
-      <c r="Q19" s="72">
+      <c r="Q19" s="60">
         <f t="shared" si="1"/>
         <v>-2281</v>
       </c>
-      <c r="R19" s="73">
+      <c r="R19" s="61">
         <f t="shared" si="3"/>
         <v>0.6312384108573007</v>
       </c>
-      <c r="S19" s="142">
+      <c r="S19" s="119">
         <f t="shared" si="8"/>
         <v>0.6312384108573007</v>
       </c>
-      <c r="T19" s="74">
+      <c r="T19" s="62">
         <v>0.35555555555555557</v>
       </c>
-      <c r="U19" s="75" t="s">
+      <c r="U19" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="V19" s="76"/>
-      <c r="W19" s="77">
+      <c r="V19" s="64"/>
+      <c r="W19" s="65">
         <f t="shared" si="9"/>
         <v>946.57410581699992</v>
       </c>
-      <c r="X19" s="78">
+      <c r="X19" s="66">
         <f t="shared" si="4"/>
         <v>37.862964232679992</v>
       </c>
-      <c r="Y19" s="79">
+      <c r="Y19" s="67">
         <f>VLOOKUP(C19,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>26</v>
       </c>
-      <c r="Z19" s="80">
+      <c r="Z19" s="68">
         <f t="shared" si="2"/>
         <v>650</v>
       </c>
-      <c r="AA19" s="80">
+      <c r="AA19" s="68">
         <f t="shared" si="5"/>
         <v>-296.57410581699992</v>
       </c>
-      <c r="AB19" s="81">
+      <c r="AB19" s="69">
         <f t="shared" si="6"/>
         <v>-0.45626785510307677</v>
       </c>
     </row>
     <row r="20" spans="1:28">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="59">
+      <c r="C20" s="47">
         <v>41716307</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="48">
         <v>12048</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="49">
         <v>12048</v>
       </c>
-      <c r="F20" s="62">
+      <c r="F20" s="50">
         <v>42732</v>
       </c>
-      <c r="G20" s="63">
+      <c r="G20" s="51">
         <v>42714</v>
       </c>
-      <c r="H20" s="64">
+      <c r="H20" s="52">
         <v>24.51</v>
       </c>
-      <c r="I20" s="138">
+      <c r="I20" s="115">
         <v>25.184210526315788</v>
       </c>
-      <c r="J20" s="66">
+      <c r="J20" s="54">
         <v>242.5</v>
       </c>
-      <c r="K20" s="139">
+      <c r="K20" s="116">
         <v>9.5</v>
       </c>
-      <c r="L20" s="68">
+      <c r="L20" s="56">
         <v>1</v>
       </c>
-      <c r="M20" s="69">
+      <c r="M20" s="57">
         <f t="shared" si="7"/>
         <v>733.00218749999999</v>
       </c>
-      <c r="N20" s="70">
+      <c r="N20" s="58">
         <v>700</v>
       </c>
-      <c r="O20" s="70">
+      <c r="O20" s="58">
         <v>1100</v>
       </c>
-      <c r="P20" s="71">
+      <c r="P20" s="59">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="Q20" s="72">
+      <c r="Q20" s="60">
         <f t="shared" si="1"/>
         <v>-10248</v>
       </c>
-      <c r="R20" s="73">
+      <c r="R20" s="61">
         <f t="shared" si="3"/>
         <v>0.95497668620531917</v>
       </c>
-      <c r="S20" s="73">
+      <c r="S20" s="61">
         <f t="shared" si="8"/>
         <v>0.95497668620531917</v>
       </c>
-      <c r="T20" s="74">
+      <c r="T20" s="62">
         <v>0.10305343511450382</v>
       </c>
-      <c r="U20" s="75" t="s">
+      <c r="U20" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="V20" s="76"/>
-      <c r="W20" s="77">
+      <c r="V20" s="64"/>
+      <c r="W20" s="65">
         <f t="shared" si="9"/>
         <v>888.1092345753616</v>
       </c>
-      <c r="X20" s="78">
+      <c r="X20" s="66">
         <f t="shared" si="4"/>
         <v>15.224729735577629</v>
       </c>
-      <c r="Y20" s="79">
+      <c r="Y20" s="67">
         <f>VLOOKUP(C20,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>17.5</v>
       </c>
-      <c r="Z20" s="80">
+      <c r="Z20" s="68">
         <f t="shared" si="2"/>
         <v>1020.8333333333334</v>
       </c>
-      <c r="AA20" s="80">
+      <c r="AA20" s="68">
         <f t="shared" si="5"/>
         <v>132.72409875797177</v>
       </c>
-      <c r="AB20" s="81">
+      <c r="AB20" s="69">
         <f t="shared" si="6"/>
         <v>0.13001544368127846</v>
       </c>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21" s="121" t="s">
+      <c r="A21" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="60">
+      <c r="D21" s="48">
         <v>13842</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="49">
         <v>7007</v>
       </c>
-      <c r="F21" s="62">
+      <c r="F21" s="50">
         <v>42732</v>
       </c>
-      <c r="G21" s="63">
+      <c r="G21" s="51">
         <v>42713</v>
       </c>
-      <c r="H21" s="64">
+      <c r="H21" s="52">
         <v>30.74</v>
       </c>
-      <c r="I21" s="138">
+      <c r="I21" s="115">
         <v>26</v>
       </c>
-      <c r="J21" s="66">
+      <c r="J21" s="54">
         <v>247</v>
       </c>
-      <c r="K21" s="139">
+      <c r="K21" s="116">
         <v>9.5</v>
       </c>
-      <c r="L21" s="68">
+      <c r="L21" s="56">
         <v>1</v>
       </c>
-      <c r="M21" s="69">
+      <c r="M21" s="57">
         <f t="shared" si="7"/>
         <v>949.09749999999997</v>
       </c>
-      <c r="N21" s="70">
+      <c r="N21" s="58">
         <v>960</v>
       </c>
-      <c r="O21" s="70">
+      <c r="O21" s="58">
         <v>3057</v>
       </c>
-      <c r="P21" s="71">
+      <c r="P21" s="59">
         <f t="shared" si="0"/>
         <v>4017</v>
       </c>
-      <c r="Q21" s="72">
+      <c r="Q21" s="60">
         <f t="shared" si="1"/>
         <v>-2990</v>
       </c>
-      <c r="R21" s="73">
+      <c r="R21" s="61">
         <f t="shared" si="3"/>
         <v>1.0114872286566976</v>
       </c>
-      <c r="S21" s="73">
+      <c r="S21" s="61">
         <f t="shared" si="8"/>
         <v>1.0114872286566976</v>
       </c>
-      <c r="T21" s="74">
+      <c r="T21" s="62">
         <v>0.16326530612244897</v>
       </c>
-      <c r="U21" s="75"/>
-      <c r="V21" s="76"/>
-      <c r="W21" s="77">
+      <c r="U21" s="63"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="65">
         <f t="shared" si="9"/>
         <v>916.87766328156465</v>
       </c>
-      <c r="X21" s="78">
+      <c r="X21" s="66">
         <f t="shared" si="4"/>
         <v>11.460970791019559</v>
       </c>
-      <c r="Y21" s="79">
+      <c r="Y21" s="67">
         <f>VLOOKUP(C21,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>10</v>
       </c>
-      <c r="Z21" s="80">
+      <c r="Z21" s="68">
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="AA21" s="80">
+      <c r="AA21" s="68">
         <f t="shared" si="5"/>
         <v>-116.87766328156465</v>
       </c>
-      <c r="AB21" s="81">
+      <c r="AB21" s="69">
         <f t="shared" si="6"/>
         <v>-0.14609707910195582</v>
       </c>
     </row>
     <row r="22" spans="1:28">
-      <c r="A22" s="121" t="s">
+      <c r="A22" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="60">
+      <c r="D22" s="48">
         <v>11964</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="49">
         <v>6050</v>
       </c>
-      <c r="F22" s="62">
+      <c r="F22" s="50">
         <v>42732</v>
       </c>
-      <c r="G22" s="63">
+      <c r="G22" s="51">
         <v>42711</v>
       </c>
-      <c r="H22" s="64">
+      <c r="H22" s="52">
         <v>30.74</v>
       </c>
-      <c r="I22" s="138">
+      <c r="I22" s="115">
         <v>26</v>
       </c>
-      <c r="J22" s="66">
+      <c r="J22" s="54">
         <v>245.5</v>
       </c>
-      <c r="K22" s="139">
+      <c r="K22" s="116">
         <v>9.5</v>
       </c>
-      <c r="L22" s="68">
+      <c r="L22" s="56">
         <v>1</v>
       </c>
-      <c r="M22" s="69">
+      <c r="M22" s="57">
         <f t="shared" si="7"/>
         <v>949.09749999999997</v>
       </c>
-      <c r="N22" s="70">
+      <c r="N22" s="58">
         <v>950</v>
       </c>
-      <c r="O22" s="70">
+      <c r="O22" s="58">
         <v>3828</v>
       </c>
-      <c r="P22" s="71">
+      <c r="P22" s="59">
         <f t="shared" si="0"/>
         <v>4778</v>
       </c>
-      <c r="Q22" s="72">
+      <c r="Q22" s="60">
         <f t="shared" si="1"/>
         <v>-1272</v>
       </c>
-      <c r="R22" s="73">
+      <c r="R22" s="61">
         <f t="shared" si="3"/>
         <v>1.0009509033581903</v>
       </c>
-      <c r="S22" s="73">
+      <c r="S22" s="61">
         <f t="shared" si="8"/>
         <v>1.0009509033581903</v>
       </c>
-      <c r="T22" s="74">
+      <c r="T22" s="62">
         <v>0.20153550863723607</v>
       </c>
-      <c r="U22" s="75"/>
-      <c r="V22" s="76" t="s">
+      <c r="U22" s="63"/>
+      <c r="V22" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="W22" s="77">
+      <c r="W22" s="65">
         <f t="shared" si="9"/>
         <v>916.87766328156465</v>
       </c>
-      <c r="X22" s="78">
+      <c r="X22" s="66">
         <f t="shared" si="4"/>
         <v>11.581612588819763</v>
       </c>
-      <c r="Y22" s="79">
+      <c r="Y22" s="67">
         <f>VLOOKUP(C22,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>10</v>
       </c>
-      <c r="Z22" s="80">
+      <c r="Z22" s="68">
         <f t="shared" si="2"/>
         <v>791.66666666666674</v>
       </c>
-      <c r="AA22" s="80">
+      <c r="AA22" s="68">
         <f t="shared" si="5"/>
         <v>-125.21099661489791</v>
       </c>
-      <c r="AB22" s="81">
+      <c r="AB22" s="69">
         <f t="shared" si="6"/>
         <v>-0.1581612588819763</v>
       </c>
     </row>
     <row r="23" spans="1:28">
-      <c r="A23" s="121" t="s">
+      <c r="A23" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23" s="48">
         <v>72396</v>
       </c>
-      <c r="E23" s="120">
+      <c r="E23" s="97">
         <v>12749</v>
       </c>
-      <c r="F23" s="62">
+      <c r="F23" s="50">
         <v>42730</v>
       </c>
-      <c r="G23" s="63">
+      <c r="G23" s="51">
         <v>42705</v>
       </c>
-      <c r="H23" s="64">
+      <c r="H23" s="52">
         <v>25.46</v>
       </c>
-      <c r="I23" s="138">
+      <c r="I23" s="115">
         <v>25.94736842105263</v>
       </c>
-      <c r="J23" s="66">
+      <c r="J23" s="54">
         <v>249</v>
       </c>
-      <c r="K23" s="139">
+      <c r="K23" s="116">
         <v>9.5</v>
       </c>
-      <c r="L23" s="68">
+      <c r="L23" s="56">
         <v>1</v>
       </c>
-      <c r="M23" s="69">
+      <c r="M23" s="57">
         <f t="shared" si="7"/>
         <v>784.48625000000004</v>
       </c>
-      <c r="N23" s="70">
+      <c r="N23" s="58">
         <v>1100</v>
       </c>
-      <c r="O23" s="70">
+      <c r="O23" s="58">
         <v>9750</v>
       </c>
-      <c r="P23" s="71">
+      <c r="P23" s="59">
         <f t="shared" si="0"/>
         <v>10850</v>
       </c>
-      <c r="Q23" s="72">
+      <c r="Q23" s="60">
         <f t="shared" si="1"/>
         <v>-1899</v>
       </c>
-      <c r="R23" s="73">
+      <c r="R23" s="61">
         <f t="shared" si="3"/>
         <v>1.4021915616749177</v>
       </c>
-      <c r="S23" s="73">
+      <c r="S23" s="61">
         <f t="shared" si="8"/>
         <v>1.4021915616749177</v>
       </c>
-      <c r="T23" s="74">
+      <c r="T23" s="62">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="U23" s="75"/>
-      <c r="V23" s="76"/>
-      <c r="W23" s="77">
+      <c r="U23" s="63"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="65">
         <f t="shared" si="9"/>
         <v>915.02163562309988</v>
       </c>
-      <c r="X23" s="78">
+      <c r="X23" s="66">
         <f t="shared" si="4"/>
         <v>9.9820542067974536</v>
       </c>
-      <c r="Y23" s="79">
+      <c r="Y23" s="67">
         <f>VLOOKUP(C23,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>16.5</v>
       </c>
-      <c r="Z23" s="80">
+      <c r="Z23" s="68">
         <f t="shared" si="2"/>
         <v>1512.5</v>
       </c>
-      <c r="AA23" s="80">
+      <c r="AA23" s="68">
         <f t="shared" si="5"/>
         <v>597.47836437690012</v>
       </c>
-      <c r="AB23" s="81">
+      <c r="AB23" s="69">
         <f t="shared" si="6"/>
         <v>0.39502701776985133</v>
       </c>
     </row>
     <row r="24" spans="1:28">
-      <c r="A24" s="121" t="s">
+      <c r="A24" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="60">
+      <c r="D24" s="48">
         <v>6741</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="49">
         <v>6741</v>
       </c>
-      <c r="F24" s="62">
+      <c r="F24" s="50">
         <v>42730</v>
       </c>
-      <c r="G24" s="63">
+      <c r="G24" s="51">
         <v>42710</v>
       </c>
-      <c r="H24" s="64">
+      <c r="H24" s="52">
         <v>17.899999999999999</v>
       </c>
-      <c r="I24" s="138">
+      <c r="I24" s="115">
         <v>27</v>
       </c>
-      <c r="J24" s="66">
+      <c r="J24" s="54">
         <v>260.5</v>
       </c>
-      <c r="K24" s="139">
+      <c r="K24" s="116">
         <v>9.5</v>
       </c>
-      <c r="L24" s="68">
+      <c r="L24" s="56">
         <v>1</v>
       </c>
-      <c r="M24" s="69">
+      <c r="M24" s="57">
         <f t="shared" si="7"/>
         <v>573.91874999999993</v>
       </c>
-      <c r="N24" s="70">
+      <c r="N24" s="58">
         <v>500</v>
       </c>
-      <c r="O24" s="70">
+      <c r="O24" s="58">
         <v>2672</v>
       </c>
-      <c r="P24" s="71">
+      <c r="P24" s="59">
         <f t="shared" si="0"/>
         <v>3172</v>
       </c>
-      <c r="Q24" s="72">
+      <c r="Q24" s="60">
         <f t="shared" si="1"/>
         <v>-3569</v>
       </c>
-      <c r="R24" s="73">
+      <c r="R24" s="61">
         <f t="shared" si="3"/>
         <v>0.87120345867773108</v>
       </c>
-      <c r="S24" s="73">
+      <c r="S24" s="61">
         <f t="shared" si="8"/>
         <v>0.87120345867773108</v>
       </c>
-      <c r="T24" s="74">
+      <c r="T24" s="62">
         <v>0.24953095684803001</v>
       </c>
-      <c r="U24" s="75"/>
-      <c r="V24" s="76"/>
-      <c r="W24" s="77">
+      <c r="U24" s="63"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="65">
         <f t="shared" si="9"/>
         <v>952.14218879239399</v>
       </c>
-      <c r="X24" s="78">
+      <c r="X24" s="66">
         <f t="shared" si="4"/>
         <v>22.851412531017456</v>
       </c>
-      <c r="Y24" s="79">
+      <c r="Y24" s="67">
         <f>VLOOKUP(C24,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>20</v>
       </c>
-      <c r="Z24" s="80">
+      <c r="Z24" s="68">
         <f t="shared" si="2"/>
         <v>833.33333333333326</v>
       </c>
-      <c r="AA24" s="80">
+      <c r="AA24" s="68">
         <f t="shared" si="5"/>
         <v>-118.80885545906074</v>
       </c>
-      <c r="AB24" s="81">
+      <c r="AB24" s="69">
         <f t="shared" si="6"/>
         <v>-0.14257062655087291</v>
       </c>
     </row>
     <row r="25" spans="1:28">
-      <c r="A25" s="143" t="s">
+      <c r="A25" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="84" t="s">
+      <c r="C25" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="85">
+      <c r="D25" s="72">
         <v>7719</v>
       </c>
-      <c r="E25" s="86">
+      <c r="E25" s="73">
         <v>7719</v>
       </c>
-      <c r="F25" s="87">
+      <c r="F25" s="74">
         <v>42734</v>
       </c>
-      <c r="G25" s="88">
+      <c r="G25" s="75">
         <v>42717</v>
       </c>
-      <c r="H25" s="89">
+      <c r="H25" s="76">
         <v>25.55</v>
       </c>
-      <c r="I25" s="144">
+      <c r="I25" s="179">
         <v>28.526315789473685</v>
       </c>
-      <c r="J25" s="66">
+      <c r="J25" s="54">
         <v>278</v>
       </c>
-      <c r="K25" s="145">
+      <c r="K25" s="120">
         <v>1.5</v>
       </c>
-      <c r="L25" s="146">
+      <c r="L25" s="183">
         <v>1</v>
       </c>
-      <c r="M25" s="114">
+      <c r="M25" s="92">
         <f t="shared" si="7"/>
         <v>136.65888157894739</v>
       </c>
-      <c r="N25" s="94">
+      <c r="N25" s="77">
         <v>22</v>
       </c>
-      <c r="O25" s="94">
+      <c r="O25" s="77">
         <v>0</v>
       </c>
-      <c r="P25" s="95">
+      <c r="P25" s="78">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="Q25" s="96">
+      <c r="Q25" s="79">
         <f t="shared" si="1"/>
         <v>-7697</v>
       </c>
-      <c r="R25" s="111"/>
-      <c r="S25" s="119" t="e">
-        <f>#REF!*K25/9.5+#REF!*K26/9.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T25" s="99">
+      <c r="R25" s="90"/>
+      <c r="S25" s="189"/>
+      <c r="T25" s="81">
         <v>0</v>
       </c>
-      <c r="U25" s="100" t="s">
+      <c r="U25" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V25" s="101"/>
-      <c r="W25" s="116">
+      <c r="V25" s="83"/>
+      <c r="W25" s="94">
         <f t="shared" si="9"/>
         <v>158.83689329808479</v>
       </c>
-      <c r="X25" s="117">
+      <c r="X25" s="95">
         <f t="shared" si="4"/>
         <v>86.638305435318969</v>
       </c>
-      <c r="Y25" s="104">
+      <c r="Y25" s="86">
         <v>13</v>
       </c>
-      <c r="Z25" s="105">
+      <c r="Z25" s="87">
         <f t="shared" si="2"/>
         <v>23.833333333333332</v>
       </c>
-      <c r="AA25" s="105">
+      <c r="AA25" s="87">
         <f t="shared" si="5"/>
         <v>-135.00355996475145</v>
       </c>
-      <c r="AB25" s="118">
+      <c r="AB25" s="96">
         <f t="shared" si="6"/>
         <v>-5.6644850334860752</v>
       </c>
     </row>
     <row r="26" spans="1:28">
-      <c r="A26" s="147"/>
-      <c r="B26" s="83" t="s">
+      <c r="A26" s="178"/>
+      <c r="B26" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="85">
+      <c r="D26" s="72">
         <v>72396</v>
       </c>
-      <c r="E26" s="148">
+      <c r="E26" s="121">
         <v>16490</v>
       </c>
-      <c r="F26" s="87">
+      <c r="F26" s="74">
         <v>42730</v>
       </c>
-      <c r="G26" s="88">
+      <c r="G26" s="75">
         <v>42703</v>
       </c>
-      <c r="H26" s="89">
+      <c r="H26" s="76">
         <v>25.46</v>
       </c>
-      <c r="I26" s="149"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="145">
+      <c r="I26" s="180"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="120">
         <v>8</v>
       </c>
-      <c r="L26" s="150"/>
-      <c r="M26" s="114">
+      <c r="L26" s="184"/>
+      <c r="M26" s="92">
         <f>H26/8*I25*K26</f>
         <v>726.28000000000009</v>
       </c>
-      <c r="N26" s="94">
+      <c r="N26" s="77">
         <v>1050</v>
       </c>
-      <c r="O26" s="94">
+      <c r="O26" s="77">
         <v>12530</v>
       </c>
-      <c r="P26" s="95">
+      <c r="P26" s="78">
         <f t="shared" si="0"/>
         <v>13580</v>
       </c>
-      <c r="Q26" s="96">
+      <c r="Q26" s="79">
         <f t="shared" si="1"/>
         <v>-2910</v>
       </c>
-      <c r="R26" s="111"/>
-      <c r="S26" s="119"/>
-      <c r="T26" s="99">
+      <c r="R26" s="90"/>
+      <c r="S26" s="189"/>
+      <c r="T26" s="81">
         <v>0.20669999999999999</v>
       </c>
-      <c r="U26" s="100"/>
-      <c r="V26" s="101" t="s">
+      <c r="U26" s="82"/>
+      <c r="V26" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="W26" s="116">
+      <c r="W26" s="94">
         <f>1150000/26/$I$58/10.5*K26*I24</f>
         <v>801.80394845675278</v>
       </c>
-      <c r="X26" s="117">
+      <c r="X26" s="95">
         <f t="shared" si="4"/>
         <v>9.1634736966486035</v>
       </c>
-      <c r="Y26" s="104">
+      <c r="Y26" s="86">
         <f>VLOOKUP(C26,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>16.5</v>
       </c>
-      <c r="Z26" s="105">
+      <c r="Z26" s="87">
         <f t="shared" si="2"/>
         <v>1443.75</v>
       </c>
-      <c r="AA26" s="105">
+      <c r="AA26" s="87">
         <f t="shared" si="5"/>
         <v>641.94605154324722</v>
       </c>
-      <c r="AB26" s="118">
+      <c r="AB26" s="96">
         <f t="shared" si="6"/>
         <v>0.44463795777887255</v>
       </c>
     </row>
     <row r="27" spans="1:28">
-      <c r="A27" s="121" t="s">
+      <c r="A27" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D27" s="48">
         <v>8292</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="49">
         <v>8292</v>
       </c>
-      <c r="F27" s="62">
+      <c r="F27" s="50">
         <v>42732</v>
       </c>
-      <c r="G27" s="63">
+      <c r="G27" s="51">
         <v>42716</v>
       </c>
-      <c r="H27" s="64">
+      <c r="H27" s="52">
         <v>20.62</v>
       </c>
-      <c r="I27" s="138">
+      <c r="I27" s="115">
         <v>23.444444444444443</v>
       </c>
-      <c r="J27" s="66">
+      <c r="J27" s="54">
         <v>205</v>
       </c>
-      <c r="K27" s="139">
+      <c r="K27" s="116">
         <v>9</v>
       </c>
-      <c r="L27" s="68">
+      <c r="L27" s="56">
         <v>1</v>
       </c>
-      <c r="M27" s="69">
+      <c r="M27" s="57">
         <f>H27/8*I27*K27</f>
         <v>543.85249999999996</v>
       </c>
-      <c r="N27" s="70">
+      <c r="N27" s="58">
         <v>550</v>
       </c>
-      <c r="O27" s="70">
+      <c r="O27" s="58">
         <v>400</v>
       </c>
-      <c r="P27" s="71">
+      <c r="P27" s="59">
         <f t="shared" si="0"/>
         <v>950</v>
       </c>
-      <c r="Q27" s="72">
+      <c r="Q27" s="60">
         <f t="shared" si="1"/>
         <v>-7342</v>
       </c>
-      <c r="R27" s="73">
+      <c r="R27" s="61">
         <f t="shared" ref="R27:R40" si="10">N27/M27</f>
         <v>1.0113036163297953</v>
       </c>
-      <c r="S27" s="73">
+      <c r="S27" s="61">
         <f>N27/M27</f>
         <v>1.0113036163297953</v>
       </c>
-      <c r="T27" s="74">
+      <c r="T27" s="62">
         <v>0.31784841075794623</v>
       </c>
-      <c r="U27" s="75" t="s">
+      <c r="U27" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="V27" s="76"/>
-      <c r="W27" s="77">
+      <c r="V27" s="64"/>
+      <c r="W27" s="65">
         <f>1150000/26/$I$58/10.5*K27*I27</f>
         <v>783.24367187210566</v>
       </c>
-      <c r="X27" s="78">
+      <c r="X27" s="66">
         <f t="shared" si="4"/>
         <v>17.088952840845941</v>
       </c>
-      <c r="Y27" s="79">
+      <c r="Y27" s="67">
         <f>VLOOKUP(C27,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>17</v>
       </c>
-      <c r="Z27" s="80">
+      <c r="Z27" s="68">
         <f t="shared" si="2"/>
         <v>779.16666666666674</v>
       </c>
-      <c r="AA27" s="80">
+      <c r="AA27" s="68">
         <f t="shared" si="5"/>
         <v>-4.0770052054389225</v>
       </c>
-      <c r="AB27" s="81">
+      <c r="AB27" s="69">
         <f t="shared" si="6"/>
         <v>-5.2325200497611831E-3</v>
       </c>
     </row>
     <row r="28" spans="1:28">
-      <c r="A28" s="121" t="s">
+      <c r="A28" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="60">
+      <c r="D28" s="48">
         <v>41512</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="49">
         <v>10000</v>
       </c>
-      <c r="F28" s="62">
+      <c r="F28" s="50">
         <v>42729</v>
       </c>
-      <c r="G28" s="63">
+      <c r="G28" s="51">
         <v>42711</v>
       </c>
-      <c r="H28" s="64">
+      <c r="H28" s="52">
         <v>51.43</v>
       </c>
-      <c r="I28" s="138">
+      <c r="I28" s="115">
         <v>21.526315789473685</v>
       </c>
-      <c r="J28" s="66">
+      <c r="J28" s="54">
         <v>224.5</v>
       </c>
-      <c r="K28" s="139">
+      <c r="K28" s="116">
         <v>9.5</v>
       </c>
-      <c r="L28" s="68">
+      <c r="L28" s="56">
         <v>1</v>
       </c>
-      <c r="M28" s="69">
+      <c r="M28" s="57">
         <f>H28/8*I28*K28</f>
         <v>1314.6793750000002</v>
       </c>
-      <c r="N28" s="70">
+      <c r="N28" s="58">
         <v>1500</v>
       </c>
-      <c r="O28" s="70">
+      <c r="O28" s="58">
         <v>6084</v>
       </c>
-      <c r="P28" s="71">
+      <c r="P28" s="59">
         <f t="shared" si="0"/>
         <v>7584</v>
       </c>
-      <c r="Q28" s="72">
+      <c r="Q28" s="60">
         <f t="shared" si="1"/>
         <v>-2416</v>
       </c>
-      <c r="R28" s="73">
+      <c r="R28" s="61">
         <f t="shared" si="10"/>
         <v>1.1409626016229242</v>
       </c>
-      <c r="S28" s="73">
+      <c r="S28" s="61">
         <f>N28/M28</f>
         <v>1.1409626016229242</v>
       </c>
-      <c r="T28" s="74">
+      <c r="T28" s="62">
         <v>0.2001</v>
       </c>
-      <c r="U28" s="75"/>
-      <c r="V28" s="76"/>
-      <c r="W28" s="77">
+      <c r="U28" s="63"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="65">
         <f>1150000/26/$I$58/10.5*K28*I28</f>
         <v>759.1153123120647</v>
       </c>
-      <c r="X28" s="78">
+      <c r="X28" s="66">
         <f t="shared" si="4"/>
         <v>6.0729224984965171</v>
       </c>
-      <c r="Y28" s="79">
+      <c r="Y28" s="67">
         <v>9</v>
       </c>
-      <c r="Z28" s="80">
+      <c r="Z28" s="68">
         <f t="shared" si="2"/>
         <v>1125</v>
       </c>
-      <c r="AA28" s="80">
+      <c r="AA28" s="68">
         <f t="shared" si="5"/>
         <v>365.8846876879353</v>
       </c>
-      <c r="AB28" s="81">
+      <c r="AB28" s="69">
         <f t="shared" si="6"/>
         <v>0.32523083350038695</v>
       </c>
     </row>
     <row r="29" spans="1:28">
-      <c r="A29" s="121" t="s">
+      <c r="A29" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="60">
+      <c r="D29" s="48">
         <v>4128</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E29" s="49">
         <v>4128</v>
       </c>
-      <c r="F29" s="62">
+      <c r="F29" s="50">
         <v>42729</v>
       </c>
-      <c r="G29" s="63">
+      <c r="G29" s="51">
         <v>42716</v>
       </c>
-      <c r="H29" s="64">
+      <c r="H29" s="52">
         <v>21.43</v>
       </c>
-      <c r="I29" s="138">
+      <c r="I29" s="115">
         <v>25.5</v>
       </c>
-      <c r="J29" s="66">
+      <c r="J29" s="54">
         <v>248</v>
       </c>
-      <c r="K29" s="139">
+      <c r="K29" s="116">
         <v>9.5</v>
       </c>
-      <c r="L29" s="68">
+      <c r="L29" s="56">
         <v>1</v>
       </c>
-      <c r="M29" s="69">
+      <c r="M29" s="57">
         <f>H29/8*I29*K29</f>
         <v>648.92718750000006</v>
       </c>
-      <c r="N29" s="70">
+      <c r="N29" s="58">
         <v>420</v>
       </c>
-      <c r="O29" s="70">
+      <c r="O29" s="58">
         <v>320</v>
       </c>
-      <c r="P29" s="71">
+      <c r="P29" s="59">
         <f t="shared" si="0"/>
         <v>740</v>
       </c>
-      <c r="Q29" s="72">
+      <c r="Q29" s="60">
         <f t="shared" si="1"/>
         <v>-3388</v>
       </c>
-      <c r="R29" s="73">
+      <c r="R29" s="61">
         <f t="shared" si="10"/>
         <v>0.64722207373997553</v>
       </c>
-      <c r="S29" s="142">
+      <c r="S29" s="119">
         <f>N29/M29</f>
         <v>0.64722207373997553</v>
       </c>
-      <c r="T29" s="74">
+      <c r="T29" s="62">
         <v>0.27176781002638523</v>
       </c>
-      <c r="U29" s="75"/>
-      <c r="V29" s="76"/>
-      <c r="W29" s="77">
+      <c r="U29" s="63"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="65">
         <f>1150000/26/$I$58/10.5*K29*I29</f>
         <v>899.24540052614987</v>
       </c>
-      <c r="X29" s="78">
+      <c r="X29" s="66">
         <f t="shared" si="4"/>
         <v>25.692725729318568</v>
       </c>
-      <c r="Y29" s="79">
+      <c r="Y29" s="67">
         <f>VLOOKUP(C29,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>17</v>
       </c>
-      <c r="Z29" s="80">
+      <c r="Z29" s="68">
         <f t="shared" si="2"/>
         <v>595</v>
       </c>
-      <c r="AA29" s="80">
+      <c r="AA29" s="68">
         <f t="shared" si="5"/>
         <v>-304.24540052614987</v>
       </c>
-      <c r="AB29" s="81">
+      <c r="AB29" s="69">
         <f t="shared" si="6"/>
         <v>-0.51133680760697453</v>
       </c>
     </row>
     <row r="30" spans="1:28">
-      <c r="A30" s="143" t="s">
+      <c r="A30" s="177" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="85">
+      <c r="D30" s="72">
         <v>13257</v>
       </c>
-      <c r="E30" s="86">
+      <c r="E30" s="73">
         <v>3283</v>
       </c>
-      <c r="F30" s="87">
+      <c r="F30" s="74">
         <v>42701</v>
       </c>
-      <c r="G30" s="88">
+      <c r="G30" s="75">
         <v>42695</v>
       </c>
-      <c r="H30" s="89">
+      <c r="H30" s="76">
         <v>34.159999999999997</v>
       </c>
-      <c r="I30" s="144">
+      <c r="I30" s="179">
         <v>24.842105263157894</v>
       </c>
-      <c r="J30" s="66">
+      <c r="J30" s="54">
         <v>237.5</v>
       </c>
-      <c r="K30" s="145">
+      <c r="K30" s="120">
         <v>7</v>
       </c>
-      <c r="L30" s="146">
+      <c r="L30" s="183">
         <v>1</v>
       </c>
-      <c r="M30" s="114">
+      <c r="M30" s="92">
         <f>H30/8*I30*K30</f>
         <v>742.53052631578942</v>
       </c>
-      <c r="N30" s="94">
+      <c r="N30" s="77">
         <v>800</v>
       </c>
-      <c r="O30" s="94">
+      <c r="O30" s="77">
         <v>0</v>
       </c>
-      <c r="P30" s="95">
+      <c r="P30" s="78">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="Q30" s="96">
+      <c r="Q30" s="79">
         <f t="shared" si="1"/>
         <v>-2483</v>
       </c>
-      <c r="R30" s="97">
+      <c r="R30" s="80">
         <f t="shared" si="10"/>
         <v>1.0773967825529769</v>
       </c>
-      <c r="S30" s="119">
+      <c r="S30" s="189">
         <f>R30*K30/9.5+R31*K31/9.5</f>
         <v>1.0143310244479051</v>
       </c>
-      <c r="T30" s="99">
+      <c r="T30" s="81">
         <v>9.451945988880063E-2</v>
       </c>
-      <c r="U30" s="100"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="116">
+      <c r="U30" s="82"/>
+      <c r="V30" s="83"/>
+      <c r="W30" s="94">
         <f>1150000/26/$I$58/10.5*K30*I30</f>
         <v>645.50688248077756</v>
       </c>
-      <c r="X30" s="117">
+      <c r="X30" s="95">
         <f t="shared" si="4"/>
         <v>9.6826032372116639</v>
       </c>
-      <c r="Y30" s="104">
+      <c r="Y30" s="86">
         <f>VLOOKUP(C30,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>14</v>
       </c>
-      <c r="Z30" s="105">
+      <c r="Z30" s="87">
         <f t="shared" si="2"/>
         <v>933.33333333333337</v>
       </c>
-      <c r="AA30" s="105">
+      <c r="AA30" s="87">
         <f t="shared" si="5"/>
         <v>287.82645085255581</v>
       </c>
-      <c r="AB30" s="118">
+      <c r="AB30" s="96">
         <f t="shared" si="6"/>
         <v>0.30838548305630981</v>
       </c>
     </row>
     <row r="31" spans="1:28">
-      <c r="A31" s="147"/>
-      <c r="B31" s="83" t="s">
+      <c r="A31" s="178"/>
+      <c r="B31" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="85">
+      <c r="D31" s="72">
         <v>13257</v>
       </c>
-      <c r="E31" s="86">
+      <c r="E31" s="73">
         <v>9974</v>
       </c>
-      <c r="F31" s="87">
+      <c r="F31" s="74">
         <v>42701</v>
       </c>
-      <c r="G31" s="88">
+      <c r="G31" s="75">
         <v>42695</v>
       </c>
-      <c r="H31" s="89">
+      <c r="H31" s="76">
         <v>32.29</v>
       </c>
-      <c r="I31" s="149"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="145">
+      <c r="I31" s="180"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="120">
         <v>2.5</v>
       </c>
-      <c r="L31" s="150"/>
-      <c r="M31" s="114">
+      <c r="L31" s="184"/>
+      <c r="M31" s="92">
         <f>H31/8*I30*K31</f>
         <v>250.67236842105262</v>
       </c>
-      <c r="N31" s="94">
+      <c r="N31" s="77">
         <v>210</v>
       </c>
-      <c r="O31" s="94">
+      <c r="O31" s="77">
         <v>9764</v>
       </c>
-      <c r="P31" s="95">
+      <c r="P31" s="78">
         <f t="shared" si="0"/>
         <v>9974</v>
       </c>
-      <c r="Q31" s="96">
+      <c r="Q31" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R31" s="97">
+      <c r="R31" s="80">
         <f t="shared" si="10"/>
         <v>0.83774690175370459</v>
       </c>
-      <c r="S31" s="119"/>
-      <c r="T31" s="99"/>
-      <c r="U31" s="100"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="116">
+      <c r="S31" s="189"/>
+      <c r="T31" s="81"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="83"/>
+      <c r="W31" s="94">
         <f>1150000/26/$I$58/10.5*K31*I29</f>
         <v>236.64352645424998</v>
       </c>
-      <c r="X31" s="117">
+      <c r="X31" s="95">
         <f t="shared" si="4"/>
         <v>13.522487225957143</v>
       </c>
-      <c r="Y31" s="104">
+      <c r="Y31" s="86">
         <f>VLOOKUP(C31,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>14</v>
       </c>
-      <c r="Z31" s="105">
+      <c r="Z31" s="87">
         <f t="shared" si="2"/>
         <v>245</v>
       </c>
-      <c r="AA31" s="105">
+      <c r="AA31" s="87">
         <f t="shared" si="5"/>
         <v>8.3564735457500205</v>
       </c>
-      <c r="AB31" s="118">
+      <c r="AB31" s="96">
         <f t="shared" si="6"/>
         <v>3.4108055288775592E-2</v>
       </c>
     </row>
     <row r="32" spans="1:28">
-      <c r="A32" s="121" t="s">
+      <c r="A32" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="60">
+      <c r="D32" s="48">
         <v>12403</v>
       </c>
-      <c r="E32" s="61">
+      <c r="E32" s="49">
         <v>12403</v>
       </c>
-      <c r="F32" s="62">
+      <c r="F32" s="50">
         <v>42728</v>
       </c>
-      <c r="G32" s="63">
+      <c r="G32" s="51">
         <v>42698</v>
       </c>
-      <c r="H32" s="64">
+      <c r="H32" s="52">
         <v>27.99</v>
       </c>
-      <c r="I32" s="138">
+      <c r="I32" s="115">
         <v>26</v>
       </c>
-      <c r="J32" s="66">
+      <c r="J32" s="54">
         <v>250</v>
       </c>
-      <c r="K32" s="139">
+      <c r="K32" s="116">
         <v>9.5</v>
       </c>
-      <c r="L32" s="68">
+      <c r="L32" s="56">
         <v>1</v>
       </c>
-      <c r="M32" s="69">
+      <c r="M32" s="57">
         <f>H32/8*I32*K32</f>
         <v>864.19124999999997</v>
       </c>
-      <c r="N32" s="70">
+      <c r="N32" s="58">
         <v>950</v>
       </c>
-      <c r="O32" s="70">
+      <c r="O32" s="58">
         <v>2450</v>
       </c>
-      <c r="P32" s="71">
+      <c r="P32" s="59">
         <f t="shared" si="0"/>
         <v>3400</v>
       </c>
-      <c r="Q32" s="72">
+      <c r="Q32" s="60">
         <f t="shared" si="1"/>
         <v>-9003</v>
       </c>
-      <c r="R32" s="73">
+      <c r="R32" s="61">
         <f t="shared" si="10"/>
         <v>1.0992937037953117</v>
       </c>
-      <c r="S32" s="73">
+      <c r="S32" s="61">
         <f>N32/M32</f>
         <v>1.0992937037953117</v>
       </c>
-      <c r="T32" s="74">
+      <c r="T32" s="62">
         <v>9.3333333333333338E-2</v>
       </c>
-      <c r="U32" s="75"/>
-      <c r="V32" s="76"/>
-      <c r="W32" s="77">
+      <c r="U32" s="63"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="65">
         <f>1150000/26/$I$58/10.5*K32*I32</f>
         <v>916.87766328156465</v>
       </c>
-      <c r="X32" s="78">
+      <c r="X32" s="66">
         <f t="shared" si="4"/>
         <v>11.581612588819763</v>
       </c>
-      <c r="Y32" s="79">
+      <c r="Y32" s="67">
         <v>13</v>
       </c>
-      <c r="Z32" s="80">
+      <c r="Z32" s="68">
         <f t="shared" si="2"/>
         <v>1029.1666666666667</v>
       </c>
-      <c r="AA32" s="80">
+      <c r="AA32" s="68">
         <f t="shared" si="5"/>
         <v>112.28900338510209</v>
       </c>
-      <c r="AB32" s="81">
+      <c r="AB32" s="69">
         <f t="shared" si="6"/>
         <v>0.10910672393694129</v>
       </c>
     </row>
     <row r="33" spans="1:28">
-      <c r="A33" s="151" t="s">
+      <c r="A33" s="190" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="83" t="s">
+      <c r="B33" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="84" t="s">
+      <c r="C33" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="85">
+      <c r="D33" s="72">
         <v>30492</v>
       </c>
-      <c r="E33" s="86">
+      <c r="E33" s="73">
         <v>5000</v>
       </c>
-      <c r="F33" s="87">
+      <c r="F33" s="74">
         <v>42732</v>
       </c>
-      <c r="G33" s="88">
+      <c r="G33" s="75">
         <v>42710</v>
       </c>
-      <c r="H33" s="89">
+      <c r="H33" s="76">
         <v>20.51</v>
       </c>
-      <c r="I33" s="144">
+      <c r="I33" s="179">
         <v>26.5</v>
       </c>
-      <c r="J33" s="66">
+      <c r="J33" s="54">
         <v>249</v>
       </c>
-      <c r="K33" s="145">
+      <c r="K33" s="120">
         <v>3.5</v>
       </c>
-      <c r="L33" s="92">
+      <c r="L33" s="191">
         <v>1</v>
       </c>
-      <c r="M33" s="114">
+      <c r="M33" s="92">
         <f>H33/8*I33*K33</f>
         <v>237.7878125</v>
       </c>
-      <c r="N33" s="94">
+      <c r="N33" s="77">
         <v>170</v>
       </c>
-      <c r="O33" s="94">
+      <c r="O33" s="77">
         <v>39</v>
       </c>
-      <c r="P33" s="95">
+      <c r="P33" s="78">
         <f t="shared" si="0"/>
         <v>209</v>
       </c>
-      <c r="Q33" s="96">
+      <c r="Q33" s="79">
         <f t="shared" si="1"/>
         <v>-4791</v>
       </c>
-      <c r="R33" s="97">
+      <c r="R33" s="80">
         <f t="shared" si="10"/>
         <v>0.71492309976988411</v>
       </c>
-      <c r="S33" s="119">
+      <c r="S33" s="189">
         <f>R33*K33/9.5+R34*K34/9.5</f>
         <v>1.0059899547931561</v>
       </c>
-      <c r="T33" s="99">
+      <c r="T33" s="81">
         <v>0</v>
       </c>
-      <c r="U33" s="100" t="s">
+      <c r="U33" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="V33" s="101"/>
-      <c r="W33" s="116">
+      <c r="V33" s="83"/>
+      <c r="W33" s="94">
         <f>1150000/26/$I$58/10.5*K33*I33</f>
         <v>344.29313064520284</v>
       </c>
-      <c r="X33" s="117">
+      <c r="X33" s="95">
         <f t="shared" si="4"/>
         <v>24.303044516131969</v>
       </c>
-      <c r="Y33" s="104">
+      <c r="Y33" s="86">
         <v>14</v>
       </c>
-      <c r="Z33" s="105">
+      <c r="Z33" s="87">
         <f t="shared" si="2"/>
         <v>198.33333333333331</v>
       </c>
-      <c r="AA33" s="105">
+      <c r="AA33" s="87">
         <f t="shared" si="5"/>
         <v>-145.95979731186952</v>
       </c>
-      <c r="AB33" s="118">
+      <c r="AB33" s="96">
         <f t="shared" si="6"/>
         <v>-0.73593175115228338</v>
       </c>
     </row>
     <row r="34" spans="1:28">
-      <c r="A34" s="151"/>
-      <c r="B34" s="83" t="s">
+      <c r="A34" s="190"/>
+      <c r="B34" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="84" t="s">
+      <c r="C34" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="85">
+      <c r="D34" s="72">
         <v>30492</v>
       </c>
-      <c r="E34" s="86">
+      <c r="E34" s="73">
         <v>30492</v>
       </c>
-      <c r="F34" s="87">
+      <c r="F34" s="74">
         <v>42730</v>
       </c>
-      <c r="G34" s="88">
+      <c r="G34" s="75">
         <v>42699</v>
       </c>
-      <c r="H34" s="89">
+      <c r="H34" s="76">
         <v>22.68</v>
       </c>
-      <c r="I34" s="149"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="145">
+      <c r="I34" s="180"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="120">
         <v>6</v>
       </c>
-      <c r="L34" s="92"/>
-      <c r="M34" s="114">
+      <c r="L34" s="191"/>
+      <c r="M34" s="92">
         <f>H34/8*I33*K34</f>
         <v>450.76499999999999</v>
       </c>
-      <c r="N34" s="94">
+      <c r="N34" s="77">
         <v>530</v>
       </c>
-      <c r="O34" s="94">
+      <c r="O34" s="77">
         <v>8300</v>
       </c>
-      <c r="P34" s="95">
+      <c r="P34" s="78">
         <f t="shared" si="0"/>
         <v>8830</v>
       </c>
-      <c r="Q34" s="96">
+      <c r="Q34" s="79">
         <f t="shared" si="1"/>
         <v>-21662</v>
       </c>
-      <c r="R34" s="97">
+      <c r="R34" s="80">
         <f t="shared" si="10"/>
         <v>1.1757789535567313</v>
       </c>
-      <c r="S34" s="119"/>
-      <c r="T34" s="99">
+      <c r="S34" s="189"/>
+      <c r="T34" s="81">
         <v>9.7493036211699163E-2</v>
       </c>
-      <c r="U34" s="100"/>
-      <c r="V34" s="101"/>
-      <c r="W34" s="116">
+      <c r="U34" s="82"/>
+      <c r="V34" s="83"/>
+      <c r="W34" s="94">
         <f>1150000/26/$I$58/10.5*K34*I32</f>
         <v>579.0806294409881</v>
       </c>
-      <c r="X34" s="117">
+      <c r="X34" s="95">
         <f t="shared" si="4"/>
         <v>13.111259534512939</v>
       </c>
-      <c r="Y34" s="104">
+      <c r="Y34" s="86">
         <v>14</v>
       </c>
-      <c r="Z34" s="105">
+      <c r="Z34" s="87">
         <f t="shared" si="2"/>
         <v>618.33333333333326</v>
       </c>
-      <c r="AA34" s="105">
+      <c r="AA34" s="87">
         <f t="shared" si="5"/>
         <v>39.252703892345153</v>
       </c>
-      <c r="AB34" s="118">
+      <c r="AB34" s="96">
         <f t="shared" si="6"/>
         <v>6.3481461820504292E-2</v>
       </c>
     </row>
     <row r="35" spans="1:28">
-      <c r="A35" s="121" t="s">
+      <c r="A35" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="60">
+      <c r="D35" s="48">
         <v>3390</v>
       </c>
-      <c r="E35" s="61">
+      <c r="E35" s="49">
         <v>3390</v>
       </c>
-      <c r="F35" s="62">
+      <c r="F35" s="50">
         <v>42724</v>
       </c>
-      <c r="G35" s="63">
+      <c r="G35" s="51">
         <v>42700</v>
       </c>
-      <c r="H35" s="64">
+      <c r="H35" s="52">
         <v>15.72</v>
       </c>
-      <c r="I35" s="138">
+      <c r="I35" s="115">
         <v>25.394736842105264</v>
       </c>
-      <c r="J35" s="66">
+      <c r="J35" s="54">
         <v>258</v>
       </c>
-      <c r="K35" s="139">
+      <c r="K35" s="116">
         <v>9.5</v>
       </c>
-      <c r="L35" s="68">
+      <c r="L35" s="56">
         <v>1</v>
       </c>
-      <c r="M35" s="69">
+      <c r="M35" s="57">
         <f t="shared" ref="M35:M40" si="11">H35/8*I35*K35</f>
         <v>474.05625000000003</v>
       </c>
-      <c r="N35" s="70">
+      <c r="N35" s="58">
         <v>400</v>
       </c>
-      <c r="O35" s="70">
+      <c r="O35" s="58">
         <v>2724</v>
       </c>
-      <c r="P35" s="71">
+      <c r="P35" s="59">
         <f t="shared" si="0"/>
         <v>3124</v>
       </c>
-      <c r="Q35" s="72">
+      <c r="Q35" s="60">
         <f t="shared" si="1"/>
         <v>-266</v>
       </c>
-      <c r="R35" s="73">
+      <c r="R35" s="61">
         <f t="shared" si="10"/>
         <v>0.84378172421521702</v>
       </c>
-      <c r="S35" s="73">
+      <c r="S35" s="61">
         <f>N35/M35</f>
         <v>0.84378172421521702</v>
       </c>
-      <c r="T35" s="74">
+      <c r="T35" s="62">
         <v>0.20833333333333334</v>
       </c>
-      <c r="U35" s="75"/>
-      <c r="V35" s="76"/>
-      <c r="W35" s="77">
+      <c r="U35" s="63"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="65">
         <f>1150000/26/$I$58/10.5*K35*I35</f>
         <v>895.53334520922056</v>
       </c>
-      <c r="X35" s="78">
+      <c r="X35" s="66">
         <f t="shared" si="4"/>
         <v>26.866000356276615</v>
       </c>
-      <c r="Y35" s="79">
+      <c r="Y35" s="67">
         <f>VLOOKUP(C35,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>26</v>
       </c>
-      <c r="Z35" s="80">
+      <c r="Z35" s="68">
         <f t="shared" si="2"/>
         <v>866.66666666666674</v>
       </c>
-      <c r="AA35" s="80">
+      <c r="AA35" s="68">
         <f t="shared" si="5"/>
         <v>-28.866678542553814</v>
       </c>
-      <c r="AB35" s="81">
+      <c r="AB35" s="69">
         <f t="shared" si="6"/>
         <v>-3.330770601063901E-2</v>
       </c>
     </row>
     <row r="36" spans="1:28">
-      <c r="A36" s="121" t="s">
+      <c r="A36" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="60">
+      <c r="D36" s="48">
         <v>63570</v>
       </c>
-      <c r="E36" s="61">
+      <c r="E36" s="49">
         <v>14133</v>
       </c>
-      <c r="F36" s="62">
+      <c r="F36" s="50">
         <v>42740</v>
       </c>
-      <c r="G36" s="63">
+      <c r="G36" s="51">
         <v>42710</v>
       </c>
-      <c r="H36" s="64">
+      <c r="H36" s="52">
         <v>40.11</v>
       </c>
-      <c r="I36" s="138">
+      <c r="I36" s="115">
         <v>26.736842105263158</v>
       </c>
-      <c r="J36" s="66">
+      <c r="J36" s="54">
         <v>256</v>
       </c>
-      <c r="K36" s="139">
+      <c r="K36" s="116">
         <v>9.5</v>
       </c>
-      <c r="L36" s="68">
+      <c r="L36" s="56">
         <v>1</v>
       </c>
-      <c r="M36" s="69">
+      <c r="M36" s="57">
         <f t="shared" si="11"/>
         <v>1273.4924999999998</v>
       </c>
-      <c r="N36" s="70">
+      <c r="N36" s="58">
         <v>1500</v>
       </c>
-      <c r="O36" s="70">
+      <c r="O36" s="58">
         <v>8372</v>
       </c>
-      <c r="P36" s="71">
+      <c r="P36" s="59">
         <f t="shared" si="0"/>
         <v>9872</v>
       </c>
-      <c r="Q36" s="72">
+      <c r="Q36" s="60">
         <f t="shared" si="1"/>
         <v>-4261</v>
       </c>
-      <c r="R36" s="73">
+      <c r="R36" s="61">
         <f t="shared" si="10"/>
         <v>1.1778632382994012</v>
       </c>
-      <c r="S36" s="73">
+      <c r="S36" s="61">
         <f>N36/M36</f>
         <v>1.1778632382994012</v>
       </c>
-      <c r="T36" s="74">
+      <c r="T36" s="62">
         <v>6.1894108873974646E-2</v>
       </c>
-      <c r="U36" s="75"/>
-      <c r="V36" s="76" t="s">
+      <c r="U36" s="63"/>
+      <c r="V36" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="W36" s="77">
+      <c r="W36" s="65">
         <f>1150000/26/$I$58/10.5*K36*I36</f>
         <v>942.8620505000705</v>
       </c>
-      <c r="X36" s="78">
+      <c r="X36" s="66">
         <f t="shared" si="4"/>
         <v>7.5428964040005644</v>
       </c>
-      <c r="Y36" s="79">
+      <c r="Y36" s="67">
         <f>VLOOKUP(C36,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="Z36" s="80">
+      <c r="Z36" s="68">
         <f t="shared" si="2"/>
         <v>1275</v>
       </c>
-      <c r="AA36" s="80">
+      <c r="AA36" s="68">
         <f t="shared" si="5"/>
         <v>332.1379494999295</v>
       </c>
-      <c r="AB36" s="81">
+      <c r="AB36" s="69">
         <f t="shared" si="6"/>
         <v>0.26050035254896431</v>
       </c>
     </row>
     <row r="37" spans="1:28">
-      <c r="A37" s="121" t="s">
+      <c r="A37" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="60">
+      <c r="D37" s="48">
         <v>42100</v>
       </c>
-      <c r="E37" s="61">
+      <c r="E37" s="49">
         <v>42100</v>
       </c>
-      <c r="F37" s="62">
+      <c r="F37" s="50">
         <v>42739</v>
       </c>
-      <c r="G37" s="63">
+      <c r="G37" s="51">
         <v>42709</v>
       </c>
-      <c r="H37" s="64">
+      <c r="H37" s="52">
         <v>45.86</v>
       </c>
-      <c r="I37" s="138">
+      <c r="I37" s="115">
         <v>26</v>
       </c>
-      <c r="J37" s="66">
+      <c r="J37" s="54">
         <v>251.5</v>
       </c>
-      <c r="K37" s="139">
+      <c r="K37" s="116">
         <v>9.5</v>
       </c>
-      <c r="L37" s="68">
+      <c r="L37" s="56">
         <v>1</v>
       </c>
-      <c r="M37" s="69">
+      <c r="M37" s="57">
         <f t="shared" si="11"/>
         <v>1415.9274999999998</v>
       </c>
-      <c r="N37" s="70">
+      <c r="N37" s="58">
         <v>1700</v>
       </c>
-      <c r="O37" s="70">
+      <c r="O37" s="58">
         <v>11650</v>
       </c>
-      <c r="P37" s="71">
+      <c r="P37" s="59">
         <f t="shared" si="0"/>
         <v>13350</v>
       </c>
-      <c r="Q37" s="72">
+      <c r="Q37" s="60">
         <f t="shared" si="1"/>
         <v>-28750</v>
       </c>
-      <c r="R37" s="73">
+      <c r="R37" s="61">
         <f t="shared" si="10"/>
         <v>1.2006264445036912</v>
       </c>
-      <c r="S37" s="73">
+      <c r="S37" s="61">
         <f>N37/M37</f>
         <v>1.2006264445036912</v>
       </c>
-      <c r="T37" s="74">
+      <c r="T37" s="62">
         <v>6.6326530612244902E-2</v>
       </c>
-      <c r="U37" s="75"/>
-      <c r="V37" s="76" t="s">
+      <c r="U37" s="63"/>
+      <c r="V37" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="W37" s="77">
+      <c r="W37" s="65">
         <f>1150000/26/$I$58/10.5*K37*I37</f>
         <v>916.87766328156465</v>
       </c>
-      <c r="X37" s="78">
+      <c r="X37" s="66">
         <f t="shared" si="4"/>
         <v>6.4720776231639858</v>
       </c>
-      <c r="Y37" s="79">
+      <c r="Y37" s="67">
         <f>VLOOKUP(C37,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="Z37" s="80">
+      <c r="Z37" s="68">
         <f t="shared" si="2"/>
         <v>1444.9999999999998</v>
       </c>
-      <c r="AA37" s="80">
+      <c r="AA37" s="68">
         <f t="shared" si="5"/>
         <v>528.12233671843512</v>
       </c>
-      <c r="AB37" s="81">
+      <c r="AB37" s="69">
         <f t="shared" si="6"/>
         <v>0.36548258596431504</v>
       </c>
     </row>
     <row r="38" spans="1:28">
-      <c r="A38" s="121" t="s">
+      <c r="A38" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="60">
+      <c r="D38" s="48">
         <v>502</v>
       </c>
-      <c r="E38" s="61">
+      <c r="E38" s="49">
         <v>520</v>
       </c>
-      <c r="F38" s="62">
+      <c r="F38" s="50">
         <v>42733</v>
       </c>
-      <c r="G38" s="63">
+      <c r="G38" s="51">
         <v>42716</v>
       </c>
-      <c r="H38" s="64">
+      <c r="H38" s="52">
         <v>12.85</v>
       </c>
-      <c r="I38" s="138">
+      <c r="I38" s="115">
         <v>27.421052631578949</v>
       </c>
-      <c r="J38" s="66">
+      <c r="J38" s="54">
         <v>251.98333300000002</v>
       </c>
-      <c r="K38" s="139">
+      <c r="K38" s="116">
         <v>9.5</v>
       </c>
-      <c r="L38" s="68">
+      <c r="L38" s="56">
         <v>1</v>
       </c>
-      <c r="M38" s="69">
+      <c r="M38" s="57">
         <f t="shared" si="11"/>
         <v>418.42812499999997</v>
       </c>
-      <c r="N38" s="70">
+      <c r="N38" s="58">
         <v>110</v>
       </c>
-      <c r="O38" s="70">
+      <c r="O38" s="58">
         <v>100</v>
       </c>
-      <c r="P38" s="71">
+      <c r="P38" s="59">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="Q38" s="72">
+      <c r="Q38" s="60">
         <f t="shared" si="1"/>
         <v>-310</v>
       </c>
-      <c r="R38" s="73">
+      <c r="R38" s="61">
         <f t="shared" si="10"/>
         <v>0.26288863828166431</v>
       </c>
-      <c r="S38" s="73">
+      <c r="S38" s="61">
         <f>N38/M38</f>
         <v>0.26288863828166431</v>
       </c>
-      <c r="T38" s="74">
+      <c r="T38" s="62">
         <v>0.14534883720930233</v>
       </c>
-      <c r="U38" s="75" t="s">
+      <c r="U38" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="V38" s="152" t="s">
+      <c r="V38" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="W38" s="77">
+      <c r="W38" s="65">
         <f>1150000/26/$I$58/10.5*K38*I38</f>
         <v>966.99041006011169</v>
       </c>
-      <c r="X38" s="78">
+      <c r="X38" s="66">
         <f t="shared" si="4"/>
         <v>105.48986291564853</v>
       </c>
-      <c r="Y38" s="79">
+      <c r="Y38" s="67">
         <f>VLOOKUP(C38,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>33</v>
       </c>
-      <c r="Z38" s="80">
+      <c r="Z38" s="68">
         <f t="shared" si="2"/>
         <v>302.5</v>
       </c>
-      <c r="AA38" s="80">
+      <c r="AA38" s="68">
         <f t="shared" si="5"/>
         <v>-664.49041006011169</v>
       </c>
-      <c r="AB38" s="81">
+      <c r="AB38" s="69">
         <f t="shared" si="6"/>
         <v>-2.1966625125954105</v>
       </c>
     </row>
     <row r="39" spans="1:28">
-      <c r="A39" s="121" t="s">
+      <c r="A39" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="60">
+      <c r="D39" s="48">
         <v>2751</v>
       </c>
-      <c r="E39" s="61">
+      <c r="E39" s="49">
         <v>2751</v>
       </c>
-      <c r="F39" s="62">
+      <c r="F39" s="50">
         <v>42723</v>
       </c>
-      <c r="G39" s="63">
+      <c r="G39" s="51">
         <v>42717</v>
       </c>
-      <c r="H39" s="64">
+      <c r="H39" s="52">
         <v>36.880000000000003</v>
       </c>
-      <c r="I39" s="138">
+      <c r="I39" s="115">
         <v>26.526315789473685</v>
       </c>
-      <c r="J39" s="66">
+      <c r="J39" s="54">
         <v>266</v>
       </c>
-      <c r="K39" s="139">
+      <c r="K39" s="116">
         <v>9.5</v>
       </c>
-      <c r="L39" s="68">
+      <c r="L39" s="56">
         <v>1</v>
       </c>
-      <c r="M39" s="69">
+      <c r="M39" s="57">
         <f t="shared" si="11"/>
         <v>1161.72</v>
       </c>
-      <c r="N39" s="70">
+      <c r="N39" s="58">
         <v>1021</v>
       </c>
-      <c r="O39" s="70">
+      <c r="O39" s="58">
         <v>0</v>
       </c>
-      <c r="P39" s="71">
+      <c r="P39" s="59">
         <f t="shared" si="0"/>
         <v>1021</v>
       </c>
-      <c r="Q39" s="72">
+      <c r="Q39" s="60">
         <f t="shared" si="1"/>
         <v>-1730</v>
       </c>
-      <c r="R39" s="73">
+      <c r="R39" s="61">
         <f t="shared" si="10"/>
         <v>0.87886926281720201</v>
       </c>
-      <c r="S39" s="73">
+      <c r="S39" s="61">
         <f>N39/M39</f>
         <v>0.87886926281720201</v>
       </c>
-      <c r="T39" s="74">
+      <c r="T39" s="62">
         <v>0.13543599257884972</v>
       </c>
-      <c r="U39" s="75" t="s">
+      <c r="U39" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="V39" s="152" t="s">
+      <c r="V39" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="W39" s="77">
+      <c r="W39" s="65">
         <f>1150000/26/$I$58/10.5*K39*I39</f>
         <v>935.43793986621165</v>
       </c>
-      <c r="X39" s="78">
+      <c r="X39" s="66">
         <f t="shared" si="4"/>
         <v>10.994373436233634</v>
       </c>
-      <c r="Y39" s="79">
+      <c r="Y39" s="67">
         <v>12</v>
       </c>
-      <c r="Z39" s="80">
+      <c r="Z39" s="68">
         <f t="shared" si="2"/>
         <v>1021</v>
       </c>
-      <c r="AA39" s="80">
+      <c r="AA39" s="68">
         <f t="shared" si="5"/>
         <v>85.56206013378835</v>
       </c>
-      <c r="AB39" s="81">
+      <c r="AB39" s="69">
         <f t="shared" si="6"/>
         <v>8.3802213647197213E-2</v>
       </c>
     </row>
     <row r="40" spans="1:28">
-      <c r="A40" s="143" t="s">
+      <c r="A40" s="177" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="83" t="s">
+      <c r="B40" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="84" t="s">
+      <c r="C40" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="85">
+      <c r="D40" s="72">
         <v>1051</v>
       </c>
-      <c r="E40" s="86">
+      <c r="E40" s="73">
         <v>1051</v>
       </c>
-      <c r="F40" s="87">
+      <c r="F40" s="74">
         <v>42723</v>
       </c>
-      <c r="G40" s="88">
+      <c r="G40" s="75">
         <v>42717</v>
       </c>
-      <c r="H40" s="89">
+      <c r="H40" s="76">
         <v>27.14</v>
       </c>
-      <c r="I40" s="144">
+      <c r="I40" s="179">
         <v>26</v>
       </c>
-      <c r="J40" s="66">
+      <c r="J40" s="54">
         <v>250</v>
       </c>
-      <c r="K40" s="153">
+      <c r="K40" s="181">
         <v>9.5</v>
       </c>
-      <c r="L40" s="146">
+      <c r="L40" s="183">
         <v>1</v>
       </c>
-      <c r="M40" s="93">
+      <c r="M40" s="185">
         <f t="shared" si="11"/>
         <v>837.94749999999999</v>
       </c>
-      <c r="N40" s="94">
+      <c r="N40" s="77">
         <v>234</v>
       </c>
-      <c r="O40" s="94">
+      <c r="O40" s="77">
         <v>0</v>
       </c>
-      <c r="P40" s="95">
+      <c r="P40" s="78">
         <f t="shared" si="0"/>
         <v>234</v>
       </c>
-      <c r="Q40" s="96">
+      <c r="Q40" s="79">
         <f t="shared" si="1"/>
         <v>-817</v>
       </c>
-      <c r="R40" s="97">
+      <c r="R40" s="80">
         <f t="shared" si="10"/>
         <v>0.27925377186518247</v>
       </c>
-      <c r="S40" s="98">
+      <c r="S40" s="187">
         <f>R40+R41</f>
         <v>0.70410139060024646</v>
       </c>
-      <c r="T40" s="99">
+      <c r="T40" s="81">
         <v>0</v>
       </c>
-      <c r="U40" s="100"/>
-      <c r="V40" s="154"/>
-      <c r="W40" s="116">
+      <c r="U40" s="82"/>
+      <c r="V40" s="123"/>
+      <c r="W40" s="94">
         <f>1150000/26/$I$58/10.5*K40*I39</f>
         <v>935.43793986621165</v>
       </c>
-      <c r="X40" s="103">
+      <c r="X40" s="85">
         <f>W40/(N40+N41)*12</f>
         <v>19.025856404058541</v>
       </c>
-      <c r="Y40" s="104">
+      <c r="Y40" s="86">
         <v>15</v>
       </c>
-      <c r="Z40" s="105">
+      <c r="Z40" s="87">
         <f t="shared" si="2"/>
         <v>292.5</v>
       </c>
-      <c r="AA40" s="106">
+      <c r="AA40" s="88">
         <f>Z40+Z41-W40</f>
         <v>-197.93793986621165</v>
       </c>
-      <c r="AB40" s="107">
+      <c r="AB40" s="89">
         <f>AA40/(Z40+Z41)</f>
         <v>-0.26839042693723614</v>
       </c>
     </row>
     <row r="41" spans="1:28">
-      <c r="A41" s="147"/>
-      <c r="B41" s="83" t="s">
+      <c r="A41" s="178"/>
+      <c r="B41" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="84" t="s">
+      <c r="C41" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="85">
+      <c r="D41" s="72">
         <v>1000</v>
       </c>
-      <c r="E41" s="86">
+      <c r="E41" s="73">
         <v>1000</v>
       </c>
-      <c r="F41" s="87">
+      <c r="F41" s="74">
         <v>42723</v>
       </c>
-      <c r="G41" s="88">
+      <c r="G41" s="75">
         <v>42714</v>
       </c>
-      <c r="H41" s="89">
+      <c r="H41" s="76">
         <v>27.14</v>
       </c>
-      <c r="I41" s="149"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="155"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="109"/>
-      <c r="N41" s="94">
+      <c r="I41" s="180"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="182"/>
+      <c r="L41" s="184"/>
+      <c r="M41" s="186"/>
+      <c r="N41" s="77">
         <v>356</v>
       </c>
-      <c r="O41" s="94">
+      <c r="O41" s="77">
         <v>662</v>
       </c>
-      <c r="P41" s="95">
+      <c r="P41" s="78">
         <f t="shared" si="0"/>
         <v>1018</v>
       </c>
-      <c r="Q41" s="96">
+      <c r="Q41" s="79">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="R41" s="97">
+      <c r="R41" s="80">
         <f>N41/M40</f>
         <v>0.42484761873506394</v>
       </c>
-      <c r="S41" s="156"/>
-      <c r="T41" s="99">
+      <c r="S41" s="188"/>
+      <c r="T41" s="81">
         <v>5.7333333333333333E-2</v>
       </c>
-      <c r="U41" s="100" t="s">
+      <c r="U41" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="V41" s="157" t="s">
+      <c r="V41" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="W41" s="111"/>
-      <c r="X41" s="111"/>
-      <c r="Y41" s="104">
+      <c r="W41" s="90"/>
+      <c r="X41" s="90"/>
+      <c r="Y41" s="86">
         <f>VLOOKUP(C41,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>15</v>
       </c>
-      <c r="Z41" s="105">
+      <c r="Z41" s="87">
         <f t="shared" si="2"/>
         <v>445</v>
       </c>
-      <c r="AA41" s="111"/>
-      <c r="AB41" s="111"/>
+      <c r="AA41" s="90"/>
+      <c r="AB41" s="90"/>
     </row>
     <row r="42" spans="1:28">
-      <c r="A42" s="121" t="s">
+      <c r="A42" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="60">
+      <c r="D42" s="48">
         <v>26465</v>
       </c>
-      <c r="E42" s="61">
+      <c r="E42" s="49">
         <v>10580</v>
       </c>
-      <c r="F42" s="62">
+      <c r="F42" s="50">
         <v>42739</v>
       </c>
-      <c r="G42" s="63">
+      <c r="G42" s="51">
         <v>42714</v>
       </c>
-      <c r="H42" s="64">
+      <c r="H42" s="52">
         <v>45.86</v>
       </c>
-      <c r="I42" s="138">
+      <c r="I42" s="115">
         <v>23</v>
       </c>
-      <c r="J42" s="66">
+      <c r="J42" s="54">
         <v>219.5</v>
       </c>
-      <c r="K42" s="139">
+      <c r="K42" s="116">
         <v>9.5</v>
       </c>
-      <c r="L42" s="68">
+      <c r="L42" s="56">
         <v>1</v>
       </c>
-      <c r="M42" s="69">
+      <c r="M42" s="57">
         <f t="shared" ref="M42:M56" si="12">H42/8*I42*K42</f>
         <v>1252.55125</v>
       </c>
-      <c r="N42" s="70">
+      <c r="N42" s="58">
         <v>1400</v>
       </c>
-      <c r="O42" s="70">
+      <c r="O42" s="58">
         <v>1874</v>
       </c>
-      <c r="P42" s="71">
+      <c r="P42" s="59">
         <f t="shared" si="0"/>
         <v>3274</v>
       </c>
-      <c r="Q42" s="72">
+      <c r="Q42" s="60">
         <f t="shared" si="1"/>
         <v>-7306</v>
       </c>
-      <c r="R42" s="73">
+      <c r="R42" s="61">
         <f>N42/M42</f>
         <v>1.1177187360597021</v>
       </c>
-      <c r="S42" s="73">
+      <c r="S42" s="61">
         <f t="shared" ref="S42:S57" si="13">N42/M42</f>
         <v>1.1177187360597021</v>
       </c>
-      <c r="T42" s="74">
+      <c r="T42" s="62">
         <v>6.8984547461368659E-2</v>
       </c>
-      <c r="U42" s="75"/>
-      <c r="V42" s="76" t="s">
+      <c r="U42" s="63"/>
+      <c r="V42" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="W42" s="77">
+      <c r="W42" s="65">
         <f t="shared" ref="W42:W57" si="14">1150000/26/$I$58/10.5*K42*I42</f>
         <v>811.08408674907639</v>
       </c>
-      <c r="X42" s="78">
+      <c r="X42" s="66">
         <f t="shared" ref="X42:X56" si="15">W42/N42*12</f>
         <v>6.9521493149920826</v>
       </c>
-      <c r="Y42" s="79">
+      <c r="Y42" s="67">
         <f>VLOOKUP(C42,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="Z42" s="80">
+      <c r="Z42" s="68">
         <f t="shared" si="2"/>
         <v>1190</v>
       </c>
-      <c r="AA42" s="80">
+      <c r="AA42" s="68">
         <f t="shared" ref="AA42:AA56" si="16">Z42-W42</f>
         <v>378.91591325092361</v>
       </c>
-      <c r="AB42" s="81">
+      <c r="AB42" s="69">
         <f t="shared" ref="AB42:AB56" si="17">AA42/Z42</f>
         <v>0.31841673382430558</v>
       </c>
     </row>
     <row r="43" spans="1:28">
-      <c r="A43" s="121" t="s">
+      <c r="A43" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="59" t="s">
+      <c r="C43" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="60">
+      <c r="D43" s="48">
         <v>20991</v>
       </c>
-      <c r="E43" s="61">
+      <c r="E43" s="49">
         <v>20991</v>
       </c>
-      <c r="F43" s="62">
+      <c r="F43" s="50">
         <v>42730</v>
       </c>
-      <c r="G43" s="63">
+      <c r="G43" s="51">
         <v>42703</v>
       </c>
-      <c r="H43" s="64">
+      <c r="H43" s="52">
         <v>39.020000000000003</v>
       </c>
-      <c r="I43" s="138">
+      <c r="I43" s="115">
         <v>27.578947368421051</v>
       </c>
-      <c r="J43" s="66">
+      <c r="J43" s="54">
         <v>275</v>
       </c>
-      <c r="K43" s="139">
+      <c r="K43" s="116">
         <v>9.5</v>
       </c>
-      <c r="L43" s="68">
+      <c r="L43" s="56">
         <v>1</v>
       </c>
-      <c r="M43" s="69">
+      <c r="M43" s="57">
         <f t="shared" si="12"/>
         <v>1277.905</v>
       </c>
-      <c r="N43" s="70">
+      <c r="N43" s="58">
         <v>1550</v>
       </c>
-      <c r="O43" s="70">
+      <c r="O43" s="58">
         <v>17800</v>
       </c>
-      <c r="P43" s="71">
+      <c r="P43" s="59">
         <f t="shared" si="0"/>
         <v>19350</v>
       </c>
-      <c r="Q43" s="72">
+      <c r="Q43" s="60">
         <f t="shared" si="1"/>
         <v>-1641</v>
       </c>
-      <c r="R43" s="73">
+      <c r="R43" s="61">
         <f>N43/M43</f>
         <v>1.2129227133472362</v>
       </c>
-      <c r="S43" s="73">
+      <c r="S43" s="61">
         <f t="shared" si="13"/>
         <v>1.2129227133472362</v>
       </c>
-      <c r="T43" s="74">
+      <c r="T43" s="62">
         <v>7.481005260081823E-2</v>
       </c>
-      <c r="U43" s="75"/>
-      <c r="V43" s="76" t="s">
+      <c r="U43" s="63"/>
+      <c r="V43" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="W43" s="77">
+      <c r="W43" s="65">
         <f t="shared" si="14"/>
         <v>972.55849303550576</v>
       </c>
-      <c r="X43" s="78">
+      <c r="X43" s="66">
         <f t="shared" si="15"/>
         <v>7.5294851073716575</v>
       </c>
-      <c r="Y43" s="79">
+      <c r="Y43" s="67">
         <f>VLOOKUP(C43,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="Z43" s="80">
+      <c r="Z43" s="68">
         <f t="shared" si="2"/>
         <v>1317.4999999999998</v>
       </c>
-      <c r="AA43" s="80">
+      <c r="AA43" s="68">
         <f t="shared" si="16"/>
         <v>344.94150696449401</v>
       </c>
-      <c r="AB43" s="81">
+      <c r="AB43" s="69">
         <f t="shared" si="17"/>
         <v>0.26181518555179817</v>
       </c>
     </row>
     <row r="44" spans="1:28">
-      <c r="A44" s="121" t="s">
+      <c r="A44" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="60">
+      <c r="D44" s="48">
         <v>6833</v>
       </c>
-      <c r="E44" s="61">
+      <c r="E44" s="49">
         <v>6914</v>
       </c>
-      <c r="F44" s="62">
+      <c r="F44" s="50">
         <v>42723</v>
       </c>
-      <c r="G44" s="63">
+      <c r="G44" s="51">
         <v>42699</v>
       </c>
-      <c r="H44" s="64">
+      <c r="H44" s="52">
         <v>18.73</v>
       </c>
-      <c r="I44" s="138">
+      <c r="I44" s="115">
         <v>25</v>
       </c>
-      <c r="J44" s="66">
+      <c r="J44" s="54">
         <v>232</v>
       </c>
-      <c r="K44" s="139">
+      <c r="K44" s="116">
         <v>9.5</v>
       </c>
-      <c r="L44" s="68">
+      <c r="L44" s="56">
         <v>1</v>
       </c>
-      <c r="M44" s="69">
+      <c r="M44" s="57">
         <f t="shared" si="12"/>
         <v>556.046875</v>
       </c>
-      <c r="N44" s="70">
+      <c r="N44" s="58">
         <v>565</v>
       </c>
-      <c r="O44" s="70">
+      <c r="O44" s="58">
         <v>6299</v>
       </c>
-      <c r="P44" s="71">
+      <c r="P44" s="59">
         <f t="shared" si="0"/>
         <v>6864</v>
       </c>
-      <c r="Q44" s="72">
+      <c r="Q44" s="60">
         <f t="shared" si="1"/>
         <v>-50</v>
       </c>
-      <c r="R44" s="73">
+      <c r="R44" s="61">
         <f>N44/M44</f>
         <v>1.0161013853373422</v>
       </c>
-      <c r="S44" s="73">
+      <c r="S44" s="61">
         <f t="shared" si="13"/>
         <v>1.0161013853373422</v>
       </c>
-      <c r="T44" s="74">
+      <c r="T44" s="62">
         <v>0.12309368191721133</v>
       </c>
-      <c r="U44" s="75"/>
-      <c r="V44" s="76" t="s">
+      <c r="U44" s="63"/>
+      <c r="V44" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="W44" s="77">
+      <c r="W44" s="65">
         <f t="shared" si="14"/>
         <v>881.61313777073519</v>
       </c>
-      <c r="X44" s="78">
+      <c r="X44" s="66">
         <f t="shared" si="15"/>
         <v>18.724526819909421</v>
       </c>
-      <c r="Y44" s="79">
+      <c r="Y44" s="67">
         <f>VLOOKUP(C44,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>21</v>
       </c>
-      <c r="Z44" s="80">
+      <c r="Z44" s="68">
         <f t="shared" si="2"/>
         <v>988.75</v>
       </c>
-      <c r="AA44" s="80">
+      <c r="AA44" s="68">
         <f t="shared" si="16"/>
         <v>107.13686222926481</v>
       </c>
-      <c r="AB44" s="81">
+      <c r="AB44" s="69">
         <f t="shared" si="17"/>
         <v>0.10835586571859905</v>
       </c>
     </row>
     <row r="45" spans="1:28">
-      <c r="A45" s="121" t="s">
+      <c r="A45" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="60">
+      <c r="D45" s="48">
         <v>63570</v>
       </c>
-      <c r="E45" s="61">
+      <c r="E45" s="49">
         <v>50000</v>
       </c>
-      <c r="F45" s="62">
+      <c r="F45" s="50">
         <v>42740</v>
       </c>
-      <c r="G45" s="63">
+      <c r="G45" s="51">
         <v>42711</v>
       </c>
-      <c r="H45" s="64">
+      <c r="H45" s="52">
         <v>40.11</v>
       </c>
-      <c r="I45" s="138">
+      <c r="I45" s="115">
         <v>23.421052631578949</v>
       </c>
-      <c r="J45" s="66">
+      <c r="J45" s="54">
         <v>224.5</v>
       </c>
-      <c r="K45" s="139">
+      <c r="K45" s="116">
         <v>9.5</v>
       </c>
-      <c r="L45" s="68">
+      <c r="L45" s="56">
         <v>1</v>
       </c>
-      <c r="M45" s="69">
+      <c r="M45" s="57">
         <f t="shared" si="12"/>
         <v>1115.559375</v>
       </c>
-      <c r="N45" s="70">
+      <c r="N45" s="58">
         <v>1650</v>
       </c>
-      <c r="O45" s="70">
+      <c r="O45" s="58">
         <v>8408</v>
       </c>
-      <c r="P45" s="71">
+      <c r="P45" s="59">
         <f t="shared" si="0"/>
         <v>10058</v>
       </c>
-      <c r="Q45" s="72">
+      <c r="Q45" s="60">
         <f t="shared" si="1"/>
         <v>-39942</v>
       </c>
-      <c r="R45" s="73">
+      <c r="R45" s="61">
         <f t="shared" ref="R45:R53" si="18">N45/M45</f>
         <v>1.479078601262259</v>
       </c>
-      <c r="S45" s="73">
+      <c r="S45" s="61">
         <f t="shared" si="13"/>
         <v>1.479078601262259</v>
       </c>
-      <c r="T45" s="74">
+      <c r="T45" s="62">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="U45" s="75"/>
-      <c r="V45" s="76" t="s">
+      <c r="U45" s="63"/>
+      <c r="V45" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="W45" s="77">
+      <c r="W45" s="65">
         <f t="shared" si="14"/>
         <v>825.93230801679408</v>
       </c>
-      <c r="X45" s="78">
+      <c r="X45" s="66">
         <f t="shared" si="15"/>
         <v>6.00678042194032</v>
       </c>
-      <c r="Y45" s="79">
+      <c r="Y45" s="67">
         <f>VLOOKUP(C45,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="Z45" s="80">
+      <c r="Z45" s="68">
         <f t="shared" si="2"/>
         <v>1402.5</v>
       </c>
-      <c r="AA45" s="80">
+      <c r="AA45" s="68">
         <f t="shared" si="16"/>
         <v>576.56769198320592</v>
       </c>
-      <c r="AB45" s="81">
+      <c r="AB45" s="69">
         <f t="shared" si="17"/>
         <v>0.4110999586333019</v>
       </c>
     </row>
     <row r="46" spans="1:28">
-      <c r="A46" s="121" t="s">
+      <c r="A46" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="D46" s="60">
+      <c r="D46" s="48">
         <v>25261</v>
       </c>
-      <c r="E46" s="61">
+      <c r="E46" s="49">
         <v>25261</v>
       </c>
-      <c r="F46" s="62">
+      <c r="F46" s="50">
         <v>42739</v>
       </c>
-      <c r="G46" s="63">
+      <c r="G46" s="51">
         <v>42714</v>
       </c>
-      <c r="H46" s="64">
+      <c r="H46" s="52">
         <v>45.86</v>
       </c>
-      <c r="I46" s="138">
+      <c r="I46" s="115">
         <v>20.888888888888889</v>
       </c>
-      <c r="J46" s="66">
+      <c r="J46" s="54">
         <v>208</v>
       </c>
-      <c r="K46" s="139">
+      <c r="K46" s="116">
         <v>9</v>
       </c>
-      <c r="L46" s="68">
+      <c r="L46" s="56">
         <v>1</v>
       </c>
-      <c r="M46" s="69">
+      <c r="M46" s="57">
         <f t="shared" si="12"/>
         <v>1077.71</v>
       </c>
-      <c r="N46" s="70">
+      <c r="N46" s="58">
         <v>1800</v>
       </c>
-      <c r="O46" s="70">
+      <c r="O46" s="58">
         <v>2150</v>
       </c>
-      <c r="P46" s="71">
+      <c r="P46" s="59">
         <f t="shared" si="0"/>
         <v>3950</v>
       </c>
-      <c r="Q46" s="72">
+      <c r="Q46" s="60">
         <f t="shared" si="1"/>
         <v>-21311</v>
       </c>
-      <c r="R46" s="73">
+      <c r="R46" s="61">
         <f>N46/M46</f>
         <v>1.6702081264904287</v>
       </c>
-      <c r="S46" s="73">
+      <c r="S46" s="61">
         <f t="shared" si="13"/>
         <v>1.6702081264904287</v>
       </c>
-      <c r="T46" s="74">
+      <c r="T46" s="62">
         <v>8.0224833929483902E-2</v>
       </c>
-      <c r="U46" s="75"/>
-      <c r="V46" s="76" t="s">
+      <c r="U46" s="63"/>
+      <c r="V46" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="W46" s="77">
+      <c r="W46" s="65">
         <f t="shared" si="14"/>
         <v>697.86639958272929</v>
       </c>
-      <c r="X46" s="78">
+      <c r="X46" s="66">
         <f t="shared" si="15"/>
         <v>4.6524426638848624</v>
       </c>
-      <c r="Y46" s="79">
+      <c r="Y46" s="67">
         <f>VLOOKUP(C46,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="Z46" s="80">
+      <c r="Z46" s="68">
         <f t="shared" si="2"/>
         <v>1530</v>
       </c>
-      <c r="AA46" s="80">
+      <c r="AA46" s="68">
         <f t="shared" si="16"/>
         <v>832.13360041727071</v>
       </c>
-      <c r="AB46" s="81">
+      <c r="AB46" s="69">
         <f t="shared" si="17"/>
         <v>0.54387817020736651</v>
       </c>
     </row>
     <row r="47" spans="1:28">
-      <c r="A47" s="158" t="s">
+      <c r="A47" s="125" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="159" t="s">
+      <c r="B47" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="123" t="s">
+      <c r="C47" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="124">
+      <c r="D47" s="101">
         <v>22035</v>
       </c>
-      <c r="E47" s="160">
+      <c r="E47" s="127">
         <v>17562</v>
       </c>
-      <c r="F47" s="126">
+      <c r="F47" s="103">
         <v>42729</v>
       </c>
-      <c r="G47" s="127">
+      <c r="G47" s="104">
         <v>42711</v>
       </c>
-      <c r="H47" s="128">
+      <c r="H47" s="105">
         <v>54.03</v>
       </c>
-      <c r="I47" s="138">
+      <c r="I47" s="115">
         <v>22</v>
       </c>
-      <c r="J47" s="66">
+      <c r="J47" s="54">
         <v>211</v>
       </c>
-      <c r="K47" s="139">
+      <c r="K47" s="116">
         <v>9.5</v>
       </c>
-      <c r="L47" s="161">
+      <c r="L47" s="128">
         <v>1</v>
       </c>
-      <c r="M47" s="162">
+      <c r="M47" s="129">
         <f t="shared" si="12"/>
         <v>1411.5337500000001</v>
       </c>
-      <c r="N47" s="133">
+      <c r="N47" s="110">
         <v>1570</v>
       </c>
-      <c r="O47" s="133">
+      <c r="O47" s="110">
         <v>6700</v>
       </c>
-      <c r="P47" s="134">
+      <c r="P47" s="111">
         <f t="shared" si="0"/>
         <v>8270</v>
       </c>
-      <c r="Q47" s="135">
+      <c r="Q47" s="112">
         <f t="shared" si="1"/>
         <v>-9292</v>
       </c>
-      <c r="R47" s="136">
+      <c r="R47" s="113">
         <f t="shared" si="18"/>
         <v>1.1122652929836074</v>
       </c>
-      <c r="S47" s="136">
+      <c r="S47" s="113">
         <f t="shared" si="13"/>
         <v>1.1122652929836074</v>
       </c>
-      <c r="T47" s="74">
+      <c r="T47" s="62">
         <v>0.189873417721519</v>
       </c>
-      <c r="U47" s="163"/>
-      <c r="V47" s="76"/>
-      <c r="W47" s="77">
+      <c r="U47" s="130"/>
+      <c r="V47" s="64"/>
+      <c r="W47" s="65">
         <f t="shared" si="14"/>
         <v>775.81956123824693</v>
       </c>
-      <c r="X47" s="78">
+      <c r="X47" s="66">
         <f t="shared" si="15"/>
         <v>5.9298310413114415</v>
       </c>
-      <c r="Y47" s="79">
+      <c r="Y47" s="67">
         <f>VLOOKUP(C47,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>8</v>
       </c>
-      <c r="Z47" s="80">
+      <c r="Z47" s="68">
         <f t="shared" si="2"/>
         <v>1046.6666666666667</v>
       </c>
-      <c r="AA47" s="80">
+      <c r="AA47" s="68">
         <f t="shared" si="16"/>
         <v>270.84710542841981</v>
       </c>
-      <c r="AB47" s="81">
+      <c r="AB47" s="69">
         <f t="shared" si="17"/>
         <v>0.25877111983606987</v>
       </c>
     </row>
     <row r="48" spans="1:28">
-      <c r="A48" s="164" t="s">
+      <c r="A48" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="60">
+      <c r="D48" s="48">
         <v>6216</v>
       </c>
-      <c r="E48" s="61">
+      <c r="E48" s="49">
         <v>6216</v>
       </c>
-      <c r="F48" s="62">
+      <c r="F48" s="50">
         <v>42729</v>
       </c>
-      <c r="G48" s="63">
+      <c r="G48" s="51">
         <v>42712</v>
       </c>
-      <c r="H48" s="64">
+      <c r="H48" s="52">
         <v>41.5</v>
       </c>
-      <c r="I48" s="138">
+      <c r="I48" s="115">
         <v>19</v>
       </c>
-      <c r="J48" s="66">
+      <c r="J48" s="54">
         <v>200</v>
       </c>
-      <c r="K48" s="139">
+      <c r="K48" s="116">
         <v>9.5</v>
       </c>
-      <c r="L48" s="68">
+      <c r="L48" s="56">
         <v>1</v>
       </c>
-      <c r="M48" s="69">
+      <c r="M48" s="57">
         <f t="shared" si="12"/>
         <v>936.34375</v>
       </c>
-      <c r="N48" s="70">
+      <c r="N48" s="58">
         <v>950</v>
       </c>
-      <c r="O48" s="70">
+      <c r="O48" s="58">
         <v>3028</v>
       </c>
-      <c r="P48" s="71">
+      <c r="P48" s="59">
         <f t="shared" si="0"/>
         <v>3978</v>
       </c>
-      <c r="Q48" s="72">
+      <c r="Q48" s="60">
         <f t="shared" si="1"/>
         <v>-2238</v>
       </c>
-      <c r="R48" s="73">
+      <c r="R48" s="61">
         <f t="shared" si="18"/>
         <v>1.014584654407102</v>
       </c>
-      <c r="S48" s="73">
+      <c r="S48" s="61">
         <f t="shared" si="13"/>
         <v>1.014584654407102</v>
       </c>
-      <c r="T48" s="74">
+      <c r="T48" s="62">
         <v>8.4582441113490364E-2</v>
       </c>
-      <c r="U48" s="75"/>
-      <c r="V48" s="76"/>
-      <c r="W48" s="77">
+      <c r="U48" s="63"/>
+      <c r="V48" s="64"/>
+      <c r="W48" s="65">
         <f t="shared" si="14"/>
         <v>670.02598470575879</v>
       </c>
-      <c r="X48" s="78">
+      <c r="X48" s="66">
         <f t="shared" si="15"/>
         <v>8.4634861225990576</v>
       </c>
-      <c r="Y48" s="79">
+      <c r="Y48" s="67">
         <f>VLOOKUP(C48,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>8</v>
       </c>
-      <c r="Z48" s="80">
+      <c r="Z48" s="68">
         <f t="shared" si="2"/>
         <v>633.33333333333337</v>
       </c>
-      <c r="AA48" s="80">
+      <c r="AA48" s="68">
         <f t="shared" si="16"/>
         <v>-36.692651372425416</v>
       </c>
-      <c r="AB48" s="81">
+      <c r="AB48" s="69">
         <f t="shared" si="17"/>
         <v>-5.7935765324882232E-2</v>
       </c>
     </row>
     <row r="49" spans="1:28">
-      <c r="A49" s="164" t="s">
+      <c r="A49" s="131" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="60">
+      <c r="D49" s="48">
         <v>4771</v>
       </c>
-      <c r="E49" s="61">
+      <c r="E49" s="49">
         <v>4771</v>
       </c>
-      <c r="F49" s="62">
+      <c r="F49" s="50">
         <v>42723</v>
       </c>
-      <c r="G49" s="63">
+      <c r="G49" s="51">
         <v>42705</v>
       </c>
-      <c r="H49" s="64">
+      <c r="H49" s="52">
         <v>16.53</v>
       </c>
-      <c r="I49" s="138">
+      <c r="I49" s="115">
         <v>25</v>
       </c>
-      <c r="J49" s="66">
+      <c r="J49" s="54">
         <v>286.5</v>
       </c>
-      <c r="K49" s="139">
+      <c r="K49" s="116">
         <v>9.5</v>
       </c>
-      <c r="L49" s="165">
+      <c r="L49" s="132">
         <v>1</v>
       </c>
-      <c r="M49" s="69">
+      <c r="M49" s="57">
         <f t="shared" si="12"/>
         <v>490.734375</v>
       </c>
-      <c r="N49" s="70">
+      <c r="N49" s="58">
         <v>350</v>
       </c>
-      <c r="O49" s="70">
+      <c r="O49" s="58">
         <v>2070</v>
       </c>
-      <c r="P49" s="71">
+      <c r="P49" s="59">
         <f t="shared" si="0"/>
         <v>2420</v>
       </c>
-      <c r="Q49" s="72">
+      <c r="Q49" s="60">
         <f t="shared" si="1"/>
         <v>-2351</v>
       </c>
-      <c r="R49" s="73">
+      <c r="R49" s="61">
         <f t="shared" si="18"/>
         <v>0.71321679880281463</v>
       </c>
-      <c r="S49" s="142">
+      <c r="S49" s="119">
         <f t="shared" si="13"/>
         <v>0.71321679880281463</v>
       </c>
-      <c r="T49" s="74">
+      <c r="T49" s="62">
         <v>0.24709302325581395</v>
       </c>
-      <c r="U49" s="75"/>
-      <c r="V49" s="76"/>
-      <c r="W49" s="77">
+      <c r="U49" s="63"/>
+      <c r="V49" s="64"/>
+      <c r="W49" s="65">
         <f t="shared" si="14"/>
         <v>881.61313777073519</v>
       </c>
-      <c r="X49" s="78">
+      <c r="X49" s="66">
         <f t="shared" si="15"/>
         <v>30.226736152139491</v>
       </c>
-      <c r="Y49" s="79">
+      <c r="Y49" s="67">
         <f>VLOOKUP(C49,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>26</v>
       </c>
-      <c r="Z49" s="80">
+      <c r="Z49" s="68">
         <f t="shared" si="2"/>
         <v>758.33333333333337</v>
       </c>
-      <c r="AA49" s="80">
+      <c r="AA49" s="68">
         <f t="shared" si="16"/>
         <v>-123.27980443740182</v>
       </c>
-      <c r="AB49" s="81">
+      <c r="AB49" s="69">
         <f t="shared" si="17"/>
         <v>-0.16256677508228812</v>
       </c>
     </row>
     <row r="50" spans="1:28">
-      <c r="A50" s="164" t="s">
+      <c r="A50" s="131" t="s">
         <v>126</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D50" s="60">
+      <c r="D50" s="48">
         <v>945</v>
       </c>
-      <c r="E50" s="61">
+      <c r="E50" s="49">
         <v>945</v>
       </c>
-      <c r="F50" s="62">
+      <c r="F50" s="50">
         <v>42723</v>
       </c>
-      <c r="G50" s="63">
+      <c r="G50" s="51">
         <v>42716</v>
       </c>
-      <c r="H50" s="64">
+      <c r="H50" s="52">
         <v>13.17</v>
       </c>
-      <c r="I50" s="138">
+      <c r="I50" s="115">
         <v>25</v>
       </c>
-      <c r="J50" s="66">
+      <c r="J50" s="54">
         <v>241.5</v>
       </c>
-      <c r="K50" s="139">
+      <c r="K50" s="116">
         <v>9</v>
       </c>
-      <c r="L50" s="165">
+      <c r="L50" s="132">
         <v>1</v>
       </c>
-      <c r="M50" s="166">
+      <c r="M50" s="133">
         <f t="shared" si="12"/>
         <v>370.40625</v>
       </c>
-      <c r="N50" s="70">
+      <c r="N50" s="58">
         <v>300</v>
       </c>
-      <c r="O50" s="70">
+      <c r="O50" s="58">
         <v>220</v>
       </c>
-      <c r="P50" s="71">
+      <c r="P50" s="59">
         <f t="shared" si="0"/>
         <v>520</v>
       </c>
-      <c r="Q50" s="72">
+      <c r="Q50" s="60">
         <f t="shared" si="1"/>
         <v>-425</v>
       </c>
-      <c r="R50" s="73">
+      <c r="R50" s="61">
         <f>N50/M50</f>
         <v>0.80992153885092377</v>
       </c>
-      <c r="S50" s="73">
+      <c r="S50" s="61">
         <f t="shared" si="13"/>
         <v>0.80992153885092377</v>
       </c>
-      <c r="T50" s="74">
+      <c r="T50" s="62">
         <v>0.22727272727272727</v>
       </c>
-      <c r="U50" s="75"/>
-      <c r="V50" s="76"/>
-      <c r="W50" s="77">
+      <c r="U50" s="63"/>
+      <c r="V50" s="64"/>
+      <c r="W50" s="65">
         <f t="shared" si="14"/>
         <v>835.21244630911747</v>
       </c>
-      <c r="X50" s="78">
+      <c r="X50" s="66">
         <f t="shared" si="15"/>
         <v>33.408497852364697</v>
       </c>
-      <c r="Y50" s="79">
+      <c r="Y50" s="67">
         <f>VLOOKUP(C50,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>28</v>
       </c>
-      <c r="Z50" s="80">
+      <c r="Z50" s="68">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
-      <c r="AA50" s="80">
+      <c r="AA50" s="68">
         <f t="shared" si="16"/>
         <v>-135.21244630911747</v>
       </c>
-      <c r="AB50" s="81">
+      <c r="AB50" s="69">
         <f t="shared" si="17"/>
         <v>-0.19316063758445354</v>
       </c>
     </row>
     <row r="51" spans="1:28">
-      <c r="A51" s="164" t="s">
+      <c r="A51" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="60">
+      <c r="D51" s="48">
         <v>10168</v>
       </c>
-      <c r="E51" s="61">
+      <c r="E51" s="49">
         <v>10480</v>
       </c>
-      <c r="F51" s="62">
+      <c r="F51" s="50">
         <v>42723</v>
       </c>
-      <c r="G51" s="63">
+      <c r="G51" s="51">
         <v>42710</v>
       </c>
-      <c r="H51" s="64">
+      <c r="H51" s="52">
         <v>47.84</v>
       </c>
-      <c r="I51" s="138">
+      <c r="I51" s="115">
         <v>24</v>
       </c>
-      <c r="J51" s="66">
+      <c r="J51" s="54">
         <v>229</v>
       </c>
-      <c r="K51" s="139">
+      <c r="K51" s="116">
         <v>9.5</v>
       </c>
-      <c r="L51" s="165">
+      <c r="L51" s="132">
         <v>1</v>
       </c>
-      <c r="M51" s="69">
+      <c r="M51" s="57">
         <f t="shared" si="12"/>
         <v>1363.44</v>
       </c>
-      <c r="N51" s="70">
+      <c r="N51" s="58">
         <v>1600</v>
       </c>
-      <c r="O51" s="70">
+      <c r="O51" s="58">
         <v>8680</v>
       </c>
-      <c r="P51" s="71">
+      <c r="P51" s="59">
         <f t="shared" si="0"/>
         <v>10280</v>
       </c>
-      <c r="Q51" s="72">
+      <c r="Q51" s="60">
         <f t="shared" si="1"/>
         <v>-200</v>
       </c>
-      <c r="R51" s="73">
+      <c r="R51" s="61">
         <f t="shared" si="18"/>
         <v>1.1735023176670774</v>
       </c>
-      <c r="S51" s="73">
+      <c r="S51" s="61">
         <f t="shared" si="13"/>
         <v>1.1735023176670774</v>
       </c>
-      <c r="T51" s="74">
+      <c r="T51" s="62">
         <v>5.6603773584905662E-2</v>
       </c>
-      <c r="U51" s="75"/>
-      <c r="V51" s="76"/>
-      <c r="W51" s="77">
+      <c r="U51" s="63"/>
+      <c r="V51" s="64"/>
+      <c r="W51" s="65">
         <f t="shared" si="14"/>
         <v>846.34861225990585</v>
       </c>
-      <c r="X51" s="78">
+      <c r="X51" s="66">
         <f t="shared" si="15"/>
         <v>6.3476145919492932</v>
       </c>
-      <c r="Y51" s="79">
+      <c r="Y51" s="67">
         <f>VLOOKUP(C51,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>8</v>
       </c>
-      <c r="Z51" s="80">
+      <c r="Z51" s="68">
         <f t="shared" si="2"/>
         <v>1066.6666666666667</v>
       </c>
-      <c r="AA51" s="80">
+      <c r="AA51" s="68">
         <f t="shared" si="16"/>
         <v>220.31805440676089</v>
       </c>
-      <c r="AB51" s="81">
+      <c r="AB51" s="69">
         <f t="shared" si="17"/>
         <v>0.20654817600633832</v>
       </c>
     </row>
     <row r="52" spans="1:28">
-      <c r="A52" s="121" t="s">
+      <c r="A52" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="B52" s="167" t="s">
+      <c r="B52" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="168" t="s">
+      <c r="C52" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="D52" s="60">
+      <c r="D52" s="48">
         <v>10404</v>
       </c>
-      <c r="E52" s="61">
+      <c r="E52" s="49">
         <v>10404</v>
       </c>
-      <c r="F52" s="62">
+      <c r="F52" s="50">
         <v>42720</v>
       </c>
-      <c r="G52" s="63">
+      <c r="G52" s="51">
         <v>42709</v>
       </c>
-      <c r="H52" s="64">
+      <c r="H52" s="52">
         <v>39.51</v>
       </c>
-      <c r="I52" s="138">
+      <c r="I52" s="115">
         <v>23.842105263157894</v>
       </c>
-      <c r="J52" s="66">
+      <c r="J52" s="54">
         <v>205.48333300000002</v>
       </c>
-      <c r="K52" s="139">
+      <c r="K52" s="116">
         <v>9.5</v>
       </c>
-      <c r="L52" s="68">
+      <c r="L52" s="56">
         <v>1</v>
       </c>
-      <c r="M52" s="69">
+      <c r="M52" s="57">
         <f t="shared" si="12"/>
         <v>1118.6268749999999</v>
       </c>
-      <c r="N52" s="70">
+      <c r="N52" s="58">
         <v>1300</v>
       </c>
-      <c r="O52" s="70">
+      <c r="O52" s="58">
         <v>8823</v>
       </c>
-      <c r="P52" s="71">
+      <c r="P52" s="59">
         <f t="shared" si="0"/>
         <v>10123</v>
       </c>
-      <c r="Q52" s="72">
+      <c r="Q52" s="60">
         <f t="shared" si="1"/>
         <v>-281</v>
       </c>
-      <c r="R52" s="73">
+      <c r="R52" s="61">
         <f t="shared" si="18"/>
         <v>1.162139073406403</v>
       </c>
-      <c r="S52" s="73">
+      <c r="S52" s="61">
         <f t="shared" si="13"/>
         <v>1.162139073406403</v>
       </c>
-      <c r="T52" s="74">
+      <c r="T52" s="62">
         <v>0.12857142857142856</v>
       </c>
-      <c r="U52" s="75"/>
-      <c r="V52" s="76"/>
-      <c r="W52" s="77">
+      <c r="U52" s="63"/>
+      <c r="V52" s="64"/>
+      <c r="W52" s="65">
         <f t="shared" si="14"/>
         <v>840.78052928451166</v>
       </c>
-      <c r="X52" s="78">
+      <c r="X52" s="66">
         <f t="shared" si="15"/>
         <v>7.7610510395493382</v>
       </c>
-      <c r="Y52" s="79">
+      <c r="Y52" s="67">
         <f>VLOOKUP(C52,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>10</v>
       </c>
-      <c r="Z52" s="80">
+      <c r="Z52" s="68">
         <f t="shared" si="2"/>
         <v>1083.3333333333333</v>
       </c>
-      <c r="AA52" s="80">
+      <c r="AA52" s="68">
         <f t="shared" si="16"/>
         <v>242.5528040488216</v>
       </c>
-      <c r="AB52" s="81">
+      <c r="AB52" s="69">
         <f t="shared" si="17"/>
         <v>0.2238948960450661</v>
       </c>
     </row>
     <row r="53" spans="1:28">
-      <c r="A53" s="121" t="s">
+      <c r="A53" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D53" s="60">
+      <c r="D53" s="48">
         <v>7974</v>
       </c>
-      <c r="E53" s="61">
+      <c r="E53" s="49">
         <v>4000</v>
       </c>
-      <c r="F53" s="62">
+      <c r="F53" s="50">
         <v>42725</v>
       </c>
-      <c r="G53" s="63">
+      <c r="G53" s="51">
         <v>42713</v>
       </c>
-      <c r="H53" s="64">
+      <c r="H53" s="52">
         <v>22.14</v>
       </c>
-      <c r="I53" s="138">
+      <c r="I53" s="115">
         <v>26.210526315789473</v>
       </c>
-      <c r="J53" s="66">
+      <c r="J53" s="54">
         <v>253</v>
       </c>
-      <c r="K53" s="139">
+      <c r="K53" s="116">
         <v>9.5</v>
       </c>
-      <c r="L53" s="165">
+      <c r="L53" s="132">
         <v>1</v>
       </c>
-      <c r="M53" s="69">
+      <c r="M53" s="57">
         <f t="shared" si="12"/>
         <v>689.10749999999996</v>
       </c>
-      <c r="N53" s="70">
+      <c r="N53" s="58">
         <v>850</v>
       </c>
-      <c r="O53" s="70">
+      <c r="O53" s="58">
         <v>2450</v>
       </c>
-      <c r="P53" s="71">
+      <c r="P53" s="59">
         <f t="shared" si="0"/>
         <v>3300</v>
       </c>
-      <c r="Q53" s="72">
+      <c r="Q53" s="60">
         <f t="shared" si="1"/>
         <v>-700</v>
       </c>
-      <c r="R53" s="73">
+      <c r="R53" s="61">
         <f t="shared" si="18"/>
         <v>1.2334795369372704</v>
       </c>
-      <c r="S53" s="73">
+      <c r="S53" s="61">
         <f t="shared" si="13"/>
         <v>1.2334795369372704</v>
       </c>
-      <c r="T53" s="74">
+      <c r="T53" s="62">
         <v>0.13901345291479822</v>
       </c>
-      <c r="U53" s="75"/>
-      <c r="V53" s="76"/>
-      <c r="W53" s="77">
+      <c r="U53" s="63"/>
+      <c r="V53" s="64"/>
+      <c r="W53" s="65">
         <f t="shared" si="14"/>
         <v>924.30177391542338</v>
       </c>
-      <c r="X53" s="78">
+      <c r="X53" s="66">
         <f t="shared" si="15"/>
         <v>13.048966219982447</v>
       </c>
-      <c r="Y53" s="79">
+      <c r="Y53" s="67">
         <f>VLOOKUP(C53,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>9.5</v>
       </c>
-      <c r="Z53" s="80">
+      <c r="Z53" s="68">
         <f t="shared" si="2"/>
         <v>672.91666666666663</v>
       </c>
-      <c r="AA53" s="80">
+      <c r="AA53" s="68">
         <f t="shared" si="16"/>
         <v>-251.38510724875675</v>
       </c>
-      <c r="AB53" s="81">
+      <c r="AB53" s="69">
         <f t="shared" si="17"/>
         <v>-0.37357539157709985</v>
       </c>
     </row>
     <row r="54" spans="1:28">
-      <c r="A54" s="121" t="s">
+      <c r="A54" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="C54" s="59" t="s">
+      <c r="C54" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D54" s="60">
+      <c r="D54" s="48">
         <v>3732</v>
       </c>
-      <c r="E54" s="61">
+      <c r="E54" s="49">
         <v>3732</v>
       </c>
-      <c r="F54" s="62">
+      <c r="F54" s="50">
         <v>42739</v>
       </c>
-      <c r="G54" s="63">
+      <c r="G54" s="51">
         <v>42713</v>
       </c>
-      <c r="H54" s="64">
+      <c r="H54" s="52">
         <v>21.93</v>
       </c>
-      <c r="I54" s="138">
+      <c r="I54" s="115">
         <v>28</v>
       </c>
-      <c r="J54" s="66">
+      <c r="J54" s="54">
         <v>286.5</v>
       </c>
-      <c r="K54" s="139">
+      <c r="K54" s="116">
         <v>9.5</v>
       </c>
-      <c r="L54" s="165">
+      <c r="L54" s="132">
         <v>1</v>
       </c>
-      <c r="M54" s="69">
+      <c r="M54" s="57">
         <f t="shared" si="12"/>
         <v>729.1724999999999</v>
       </c>
-      <c r="N54" s="70">
+      <c r="N54" s="58">
         <v>800</v>
       </c>
-      <c r="O54" s="70">
+      <c r="O54" s="58">
         <v>2806</v>
       </c>
-      <c r="P54" s="71">
+      <c r="P54" s="59">
         <f t="shared" si="0"/>
         <v>3606</v>
       </c>
-      <c r="Q54" s="72">
+      <c r="Q54" s="60">
         <f t="shared" si="1"/>
         <v>-126</v>
       </c>
-      <c r="R54" s="73">
+      <c r="R54" s="61">
         <f>N54/M54</f>
         <v>1.0971340800702167</v>
       </c>
-      <c r="S54" s="73">
+      <c r="S54" s="61">
         <f t="shared" si="13"/>
         <v>1.0971340800702167</v>
       </c>
-      <c r="T54" s="74">
+      <c r="T54" s="62">
         <v>0.12437810945273632</v>
       </c>
-      <c r="U54" s="75"/>
-      <c r="V54" s="76"/>
-      <c r="W54" s="77">
+      <c r="U54" s="63"/>
+      <c r="V54" s="64"/>
+      <c r="W54" s="65">
         <f>1150000/26/$I$58/10.5*K54*I54</f>
         <v>987.40671430322345</v>
       </c>
-      <c r="X54" s="78">
+      <c r="X54" s="66">
         <f t="shared" si="15"/>
         <v>14.811100714548353</v>
       </c>
-      <c r="Y54" s="79">
+      <c r="Y54" s="67">
         <f>VLOOKUP(C54,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>8.5</v>
       </c>
-      <c r="Z54" s="80">
+      <c r="Z54" s="68">
         <f t="shared" si="2"/>
         <v>566.66666666666674</v>
       </c>
-      <c r="AA54" s="80">
+      <c r="AA54" s="68">
         <f t="shared" si="16"/>
         <v>-420.74004763655671</v>
       </c>
-      <c r="AB54" s="81">
+      <c r="AB54" s="69">
         <f t="shared" si="17"/>
         <v>-0.74248243700568817</v>
       </c>
     </row>
     <row r="55" spans="1:28">
-      <c r="A55" s="164" t="s">
+      <c r="A55" s="131" t="s">
         <v>137</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D55" s="60">
+      <c r="D55" s="48">
         <v>4800</v>
       </c>
-      <c r="E55" s="61">
+      <c r="E55" s="49">
         <v>4800</v>
       </c>
-      <c r="F55" s="62">
+      <c r="F55" s="50">
         <v>42397</v>
       </c>
-      <c r="G55" s="63">
+      <c r="G55" s="51">
         <v>42714</v>
       </c>
-      <c r="H55" s="64">
+      <c r="H55" s="52">
         <v>22.14</v>
       </c>
-      <c r="I55" s="138">
+      <c r="I55" s="115">
         <v>27.3125</v>
       </c>
-      <c r="J55" s="66">
+      <c r="J55" s="54">
         <v>238</v>
       </c>
-      <c r="K55" s="139">
+      <c r="K55" s="116">
         <v>8</v>
       </c>
-      <c r="L55" s="165">
+      <c r="L55" s="132">
         <v>1</v>
       </c>
-      <c r="M55" s="69">
+      <c r="M55" s="57">
         <f t="shared" si="12"/>
         <v>604.69875000000002</v>
       </c>
-      <c r="N55" s="70">
+      <c r="N55" s="58">
         <v>900</v>
       </c>
-      <c r="O55" s="70">
+      <c r="O55" s="58">
         <v>1500</v>
       </c>
-      <c r="P55" s="71">
+      <c r="P55" s="59">
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
-      <c r="Q55" s="72">
+      <c r="Q55" s="60">
         <f t="shared" si="1"/>
         <v>-2400</v>
       </c>
-      <c r="R55" s="73">
+      <c r="R55" s="61">
         <f>N55/M55</f>
         <v>1.4883444028948298</v>
       </c>
-      <c r="S55" s="73">
+      <c r="S55" s="61">
         <f t="shared" si="13"/>
         <v>1.4883444028948298</v>
       </c>
-      <c r="T55" s="74">
+      <c r="T55" s="62">
         <v>9.0062111801242239E-2</v>
       </c>
-      <c r="U55" s="75"/>
-      <c r="V55" s="76"/>
-      <c r="W55" s="77">
+      <c r="U55" s="63"/>
+      <c r="V55" s="64"/>
+      <c r="W55" s="65">
         <f t="shared" si="14"/>
         <v>811.08408674907628</v>
       </c>
-      <c r="X55" s="78">
+      <c r="X55" s="66">
         <f t="shared" si="15"/>
         <v>10.814454489987684</v>
       </c>
-      <c r="Y55" s="79">
+      <c r="Y55" s="67">
         <f>VLOOKUP(C55,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>9.5</v>
       </c>
-      <c r="Z55" s="80">
+      <c r="Z55" s="68">
         <f t="shared" si="2"/>
         <v>712.5</v>
       </c>
-      <c r="AA55" s="80">
+      <c r="AA55" s="68">
         <f t="shared" si="16"/>
         <v>-98.584086749076278</v>
       </c>
-      <c r="AB55" s="81">
+      <c r="AB55" s="69">
         <f t="shared" si="17"/>
         <v>-0.13836363052501935</v>
       </c>
     </row>
     <row r="56" spans="1:28">
-      <c r="A56" s="164" t="s">
+      <c r="A56" s="131" t="s">
         <v>139</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="B56" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D56" s="60">
+      <c r="D56" s="48">
         <v>2112</v>
       </c>
-      <c r="E56" s="61">
+      <c r="E56" s="49">
         <v>2112</v>
       </c>
-      <c r="F56" s="62">
+      <c r="F56" s="50">
         <v>42695</v>
       </c>
-      <c r="G56" s="169">
+      <c r="G56" s="136">
         <v>42716</v>
       </c>
-      <c r="H56" s="170">
+      <c r="H56" s="137">
         <v>30.97</v>
       </c>
-      <c r="I56" s="138">
+      <c r="I56" s="115">
         <v>24.5</v>
       </c>
-      <c r="J56" s="66">
+      <c r="J56" s="54">
         <v>239.48333299999999</v>
       </c>
-      <c r="K56" s="139">
+      <c r="K56" s="116">
         <v>9.5</v>
       </c>
-      <c r="L56" s="165">
+      <c r="L56" s="132">
         <v>1</v>
       </c>
-      <c r="M56" s="166">
+      <c r="M56" s="133">
         <f t="shared" si="12"/>
         <v>901.03343749999999</v>
       </c>
-      <c r="N56" s="171">
+      <c r="N56" s="138">
         <v>600</v>
       </c>
-      <c r="O56" s="171">
+      <c r="O56" s="138">
         <v>200</v>
       </c>
-      <c r="P56" s="71">
+      <c r="P56" s="59">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="Q56" s="72">
+      <c r="Q56" s="60">
         <f t="shared" si="1"/>
         <v>-1312</v>
       </c>
-      <c r="R56" s="73">
+      <c r="R56" s="61">
         <f>N56/M56</f>
         <v>0.66590203540587245</v>
       </c>
-      <c r="S56" s="142">
+      <c r="S56" s="119">
         <f t="shared" si="13"/>
         <v>0.66590203540587245</v>
       </c>
-      <c r="T56" s="74">
+      <c r="T56" s="62">
         <v>0.1892744479495268</v>
       </c>
-      <c r="U56" s="75" t="s">
+      <c r="U56" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="V56" s="76"/>
-      <c r="W56" s="77">
+      <c r="V56" s="64"/>
+      <c r="W56" s="65">
         <f t="shared" si="14"/>
         <v>863.98087501532052</v>
       </c>
-      <c r="X56" s="78">
+      <c r="X56" s="66">
         <f t="shared" si="15"/>
         <v>17.279617500306411</v>
       </c>
-      <c r="Y56" s="79">
+      <c r="Y56" s="67">
         <f>VLOOKUP(C56,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>13</v>
       </c>
-      <c r="Z56" s="80">
+      <c r="Z56" s="68">
         <f t="shared" si="2"/>
         <v>650</v>
       </c>
-      <c r="AA56" s="80">
+      <c r="AA56" s="68">
         <f t="shared" si="16"/>
         <v>-213.98087501532052</v>
       </c>
-      <c r="AB56" s="81">
+      <c r="AB56" s="69">
         <f t="shared" si="17"/>
         <v>-0.3292013461774162</v>
       </c>
     </row>
     <row r="57" spans="1:28">
-      <c r="A57" s="172" t="s">
+      <c r="A57" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="B57" s="58" t="s">
+      <c r="B57" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="59" t="s">
+      <c r="C57" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="D57" s="60">
+      <c r="D57" s="48">
         <v>8688</v>
       </c>
-      <c r="E57" s="61">
+      <c r="E57" s="49">
         <v>9091</v>
       </c>
-      <c r="F57" s="62">
+      <c r="F57" s="50">
         <v>42720</v>
       </c>
-      <c r="G57" s="63">
+      <c r="G57" s="51">
         <v>42692</v>
       </c>
-      <c r="H57" s="64">
+      <c r="H57" s="52">
         <v>41.14</v>
       </c>
-      <c r="I57" s="138">
+      <c r="I57" s="115">
         <v>23</v>
       </c>
-      <c r="J57" s="66">
+      <c r="J57" s="54">
         <v>218.5</v>
       </c>
-      <c r="K57" s="139">
+      <c r="K57" s="116">
         <v>9.5</v>
       </c>
-      <c r="L57" s="165">
+      <c r="L57" s="132">
         <v>1</v>
       </c>
-      <c r="M57" s="166">
+      <c r="M57" s="133">
         <f>H57/8*I57*K57</f>
         <v>1123.63625</v>
       </c>
-      <c r="N57" s="70">
+      <c r="N57" s="58">
         <v>700</v>
       </c>
-      <c r="O57" s="70">
+      <c r="O57" s="58">
         <v>5961</v>
       </c>
-      <c r="P57" s="71">
+      <c r="P57" s="59">
         <f t="shared" si="0"/>
         <v>6661</v>
       </c>
-      <c r="Q57" s="72">
+      <c r="Q57" s="60">
         <f t="shared" si="1"/>
         <v>-2430</v>
       </c>
-      <c r="R57" s="73">
+      <c r="R57" s="61">
         <f>N57/M57</f>
         <v>0.62297740928169587</v>
       </c>
-      <c r="S57" s="142">
+      <c r="S57" s="119">
         <f t="shared" si="13"/>
         <v>0.62297740928169587</v>
       </c>
-      <c r="T57" s="74">
+      <c r="T57" s="62">
         <v>0</v>
       </c>
-      <c r="U57" s="75"/>
-      <c r="V57" s="76" t="s">
+      <c r="U57" s="63"/>
+      <c r="V57" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="W57" s="77">
+      <c r="W57" s="65">
         <f t="shared" si="14"/>
         <v>811.08408674907639</v>
       </c>
-      <c r="X57" s="173">
+      <c r="X57" s="140">
         <f>W57/(N57+N58)*12</f>
         <v>0.23815721447070853</v>
       </c>
-      <c r="Y57" s="174">
+      <c r="Y57" s="141">
         <f>VLOOKUP(C57,'[1]12.12'!C$56:Y$107,23,0)</f>
         <v>10</v>
       </c>
-      <c r="Z57" s="175">
+      <c r="Z57" s="142">
         <f>N57/12*Y57</f>
         <v>583.33333333333337</v>
       </c>
-      <c r="AA57" s="176">
+      <c r="AA57" s="143">
         <f>Z57+Z58-W57</f>
         <v>-227.75075341574302</v>
       </c>
-      <c r="AB57" s="177">
+      <c r="AB57" s="144">
         <f>AA57/(Z57+Z58)</f>
         <v>-0.39042986299841659</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="17.25" thickBot="1">
-      <c r="A58" s="178" t="s">
+      <c r="A58" s="145" t="s">
         <v>144</v>
       </c>
-      <c r="B58" s="179"/>
-      <c r="C58" s="179"/>
-      <c r="D58" s="180"/>
-      <c r="E58" s="181"/>
-      <c r="F58" s="182"/>
-      <c r="G58" s="182"/>
-      <c r="H58" s="183"/>
-      <c r="I58" s="184">
+      <c r="B58" s="146"/>
+      <c r="C58" s="146"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="148"/>
+      <c r="F58" s="149"/>
+      <c r="G58" s="149"/>
+      <c r="H58" s="150"/>
+      <c r="I58" s="151">
         <f>SUM(I6:I57)</f>
         <v>1134.8037280701756</v>
       </c>
-      <c r="J58" s="184"/>
-      <c r="K58" s="179"/>
-      <c r="L58" s="131"/>
-      <c r="M58" s="185">
+      <c r="J58" s="151"/>
+      <c r="K58" s="146"/>
+      <c r="L58" s="108"/>
+      <c r="M58" s="152">
         <f>SUM(M6:M57)</f>
         <v>38402.570838815795</v>
       </c>
-      <c r="N58" s="186">
+      <c r="N58" s="153">
         <f>SUM(N5:N57)</f>
         <v>40168</v>
       </c>
-      <c r="O58" s="182"/>
-      <c r="P58" s="71">
+      <c r="O58" s="149"/>
+      <c r="P58" s="59">
         <f t="shared" si="0"/>
         <v>40168</v>
       </c>
-      <c r="Q58" s="187"/>
-      <c r="R58" s="187"/>
-      <c r="S58" s="136">
+      <c r="Q58" s="154"/>
+      <c r="R58" s="154"/>
+      <c r="S58" s="113">
         <f>N58/M58</f>
         <v>1.0459716399871797</v>
       </c>
-      <c r="T58" s="137"/>
-      <c r="U58" s="54"/>
-      <c r="V58" s="188"/>
-      <c r="W58" s="56"/>
-      <c r="X58" s="56"/>
-      <c r="Y58" s="56"/>
-      <c r="Z58" s="175">
+      <c r="T58" s="114"/>
+      <c r="U58" s="42"/>
+      <c r="V58" s="155"/>
+      <c r="W58" s="44"/>
+      <c r="X58" s="44"/>
+      <c r="Y58" s="44"/>
+      <c r="Z58" s="142">
         <f>N58/12*Y58</f>
         <v>0</v>
       </c>
-      <c r="AA58" s="56"/>
-      <c r="AB58" s="56"/>
+      <c r="AA58" s="44"/>
+      <c r="AB58" s="44"/>
     </row>
     <row r="59" spans="1:28">
-      <c r="A59" s="189"/>
-      <c r="B59" s="190"/>
-      <c r="C59" s="190"/>
-      <c r="D59" s="190"/>
-      <c r="E59" s="191"/>
-      <c r="F59" s="190"/>
-      <c r="G59" s="190"/>
-      <c r="H59" s="189"/>
-      <c r="I59" s="192"/>
-      <c r="J59" s="192"/>
-      <c r="K59" s="192"/>
-      <c r="L59" s="192"/>
-      <c r="M59" s="193"/>
-      <c r="N59" s="190"/>
-      <c r="O59" s="190"/>
-      <c r="P59" s="190"/>
-      <c r="Q59" s="190"/>
-      <c r="R59" s="190"/>
-      <c r="S59" s="190"/>
-      <c r="T59" s="194"/>
-      <c r="U59" s="190"/>
-      <c r="V59" s="195"/>
-      <c r="W59" s="196">
+      <c r="A59" s="156"/>
+      <c r="B59" s="157"/>
+      <c r="C59" s="157"/>
+      <c r="D59" s="157"/>
+      <c r="E59" s="158"/>
+      <c r="F59" s="157"/>
+      <c r="G59" s="157"/>
+      <c r="H59" s="156"/>
+      <c r="I59" s="159"/>
+      <c r="J59" s="159"/>
+      <c r="K59" s="159"/>
+      <c r="L59" s="159"/>
+      <c r="M59" s="160"/>
+      <c r="N59" s="157"/>
+      <c r="O59" s="157"/>
+      <c r="P59" s="157"/>
+      <c r="Q59" s="157"/>
+      <c r="R59" s="157"/>
+      <c r="S59" s="157"/>
+      <c r="T59" s="161"/>
+      <c r="U59" s="157"/>
+      <c r="V59" s="162"/>
+      <c r="W59" s="163">
         <f>ROUND(SUBTOTAL(9,W6:W58),0)</f>
         <v>39802</v>
       </c>
-      <c r="X59" s="197"/>
-      <c r="Y59" s="198"/>
-      <c r="Z59" s="199">
+      <c r="X59" s="164"/>
+      <c r="Y59" s="165"/>
+      <c r="Z59" s="166">
         <f>ROUND(SUBTOTAL(9,Z6:Z58),0)</f>
         <v>42431</v>
       </c>
-      <c r="AA59" s="199">
+      <c r="AA59" s="166">
         <f>ROUND(SUBTOTAL(9,AA6:AA58),0)</f>
         <v>2628</v>
       </c>
-      <c r="AB59" s="200">
+      <c r="AB59" s="167">
         <f>AA59/Z59</f>
         <v>6.1935848789799908E-2</v>
       </c>
     </row>
     <row r="60" spans="1:28" ht="17.25" thickBot="1">
-      <c r="A60" s="189"/>
-      <c r="B60" s="190"/>
-      <c r="C60" s="190"/>
-      <c r="D60" s="190"/>
-      <c r="E60" s="191"/>
-      <c r="F60" s="190"/>
-      <c r="G60" s="190"/>
-      <c r="H60" s="189"/>
-      <c r="I60" s="192"/>
-      <c r="J60" s="192"/>
-      <c r="K60" s="192"/>
-      <c r="L60" s="192"/>
-      <c r="M60" s="193"/>
-      <c r="N60" s="190"/>
-      <c r="O60" s="190"/>
-      <c r="P60" s="190"/>
-      <c r="Q60" s="190"/>
-      <c r="R60" s="190"/>
-      <c r="S60" s="190"/>
-      <c r="T60" s="194"/>
-      <c r="U60" s="190"/>
-      <c r="V60" s="195"/>
-      <c r="W60" s="201"/>
-      <c r="X60" s="202"/>
-      <c r="Y60" s="203"/>
-      <c r="Z60" s="204"/>
-      <c r="AA60" s="205"/>
-      <c r="AB60" s="206">
+      <c r="A60" s="156"/>
+      <c r="B60" s="157"/>
+      <c r="C60" s="157"/>
+      <c r="D60" s="157"/>
+      <c r="E60" s="158"/>
+      <c r="F60" s="157"/>
+      <c r="G60" s="157"/>
+      <c r="H60" s="156"/>
+      <c r="I60" s="159"/>
+      <c r="J60" s="159"/>
+      <c r="K60" s="159"/>
+      <c r="L60" s="159"/>
+      <c r="M60" s="160"/>
+      <c r="N60" s="157"/>
+      <c r="O60" s="157"/>
+      <c r="P60" s="157"/>
+      <c r="Q60" s="157"/>
+      <c r="R60" s="157"/>
+      <c r="S60" s="157"/>
+      <c r="T60" s="161"/>
+      <c r="U60" s="157"/>
+      <c r="V60" s="162"/>
+      <c r="W60" s="168"/>
+      <c r="X60" s="169"/>
+      <c r="Y60" s="170"/>
+      <c r="Z60" s="171"/>
+      <c r="AA60" s="172"/>
+      <c r="AB60" s="173">
         <f>(Z59-W59)/Z59</f>
         <v>6.1959416464377456E-2</v>
       </c>
     </row>
     <row r="61" spans="1:28">
-      <c r="A61" s="189"/>
-      <c r="B61" s="190"/>
-      <c r="C61" s="190"/>
-      <c r="D61" s="190"/>
-      <c r="E61" s="191"/>
-      <c r="F61" s="190"/>
-      <c r="G61" s="190"/>
-      <c r="H61" s="189"/>
-      <c r="I61" s="192"/>
-      <c r="J61" s="192"/>
-      <c r="K61" s="192"/>
-      <c r="L61" s="192"/>
-      <c r="M61" s="207">
+      <c r="A61" s="156"/>
+      <c r="B61" s="157"/>
+      <c r="C61" s="157"/>
+      <c r="D61" s="157"/>
+      <c r="E61" s="158"/>
+      <c r="F61" s="157"/>
+      <c r="G61" s="157"/>
+      <c r="H61" s="156"/>
+      <c r="I61" s="159"/>
+      <c r="J61" s="159"/>
+      <c r="K61" s="159"/>
+      <c r="L61" s="159"/>
+      <c r="M61" s="174">
         <f>'[2]12.13 C'!M59+'[2]12.13 A'!M59+'[2]12.13 E'!M59</f>
         <v>38402.570838815787</v>
       </c>
-      <c r="N61" s="207">
+      <c r="N61" s="174">
         <f>'[2]12.13 C'!N59+'[2]12.13 A'!N59+'[2]12.13 E'!N59</f>
         <v>40168</v>
       </c>
-      <c r="O61" s="208"/>
-      <c r="P61" s="208"/>
-      <c r="Q61" s="208"/>
-      <c r="R61" s="208"/>
-      <c r="S61" s="208"/>
-      <c r="T61" s="208"/>
-      <c r="U61" s="208"/>
-      <c r="V61" s="209"/>
-      <c r="W61" s="207">
+      <c r="O61" s="175"/>
+      <c r="P61" s="175"/>
+      <c r="Q61" s="175"/>
+      <c r="R61" s="175"/>
+      <c r="S61" s="175"/>
+      <c r="T61" s="175"/>
+      <c r="U61" s="175"/>
+      <c r="V61" s="176"/>
+      <c r="W61" s="174">
         <f>'[2]12.13 C'!W59+'[2]12.13 A'!W59+'[2]12.13 E'!W59</f>
         <v>39803</v>
       </c>
-      <c r="X61" s="208"/>
-      <c r="Y61" s="208"/>
-      <c r="Z61" s="207">
+      <c r="X61" s="175"/>
+      <c r="Y61" s="175"/>
+      <c r="Z61" s="174">
         <f>'[2]12.13 C'!Z59+'[2]12.13 A'!Z59+'[2]12.13 E'!Z59</f>
         <v>42431</v>
       </c>
-      <c r="AA61" s="207">
+      <c r="AA61" s="174">
         <f>'[2]12.13 C'!AA59+'[2]12.13 A'!AA59+'[2]12.13 E'!AA59</f>
         <v>2628</v>
       </c>
-      <c r="AB61" s="195"/>
+      <c r="AB61" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="B5:T5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="S11:S12"/>
     <mergeCell ref="S40:S41"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="I30:I31"/>
@@ -10957,27 +10968,14 @@
     <mergeCell ref="I33:I34"/>
     <mergeCell ref="L33:L34"/>
     <mergeCell ref="S33:S34"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="W3:AB3"/>
-    <mergeCell ref="B5:T5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GGFPortal/ExcelUpLoad/Salse/test12_13.xlsx
+++ b/GGFPortal/ExcelUpLoad/Salse/test12_13.xlsx
@@ -604,13 +604,14 @@
     <t>6S</t>
   </si>
   <si>
-    <t>RE7SB011W-B</t>
-  </si>
-  <si>
     <t>SEAGRN DISTRESSED STRIP1760+50+ NATIVE ART3401+OMBRE DAY DREAM FOIL3880</t>
   </si>
   <si>
     <t>T.Cộng</t>
+  </si>
+  <si>
+    <t>RE7SB011W-Bvvvvv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -636,7 +637,7 @@
     <numFmt numFmtId="190" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="191" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1979,6 +1980,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="20" fillId="4" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="4" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="4" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="20" fillId="4" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="20" fillId="4" borderId="28" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="20" fillId="4" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="20" fillId="4" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1991,89 +2026,55 @@
     <xf numFmtId="39" fontId="20" fillId="4" borderId="35" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="34" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="36" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="4" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="4" borderId="28" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="4" borderId="31" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="4" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="4" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="35" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="34" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="36" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="20" fillId="4" borderId="28" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="20" fillId="4" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="4" borderId="28" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="4" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="4" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="4" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="4" borderId="31" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="4" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="4" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="20" fillId="4" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="20" fillId="4" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -5796,13 +5797,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="26.25">
+    <row r="1" spans="1:28" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="196" t="s">
         <v>0</v>
       </c>
@@ -5834,7 +5835,7 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:28" ht="27" thickBot="1">
+    <row r="2" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="199" t="s">
         <v>1</v>
       </c>
@@ -5866,7 +5867,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28" ht="26.25">
+    <row r="3" spans="1:28" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -5891,16 +5892,16 @@
       </c>
       <c r="U3" s="203"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="204" t="s">
+      <c r="W3" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="X3" s="205"/>
-      <c r="Y3" s="205"/>
-      <c r="Z3" s="205"/>
-      <c r="AA3" s="205"/>
-      <c r="AB3" s="206"/>
+      <c r="X3" s="178"/>
+      <c r="Y3" s="178"/>
+      <c r="Z3" s="178"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="179"/>
     </row>
-    <row r="4" spans="1:28" ht="81">
+    <row r="4" spans="1:28" ht="81" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
@@ -5980,31 +5981,31 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="207" t="s">
+      <c r="B5" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="207"/>
-      <c r="K5" s="207"/>
-      <c r="L5" s="207"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="207"/>
-      <c r="O5" s="207"/>
-      <c r="P5" s="207"/>
-      <c r="Q5" s="207"/>
-      <c r="R5" s="207"/>
-      <c r="S5" s="207"/>
-      <c r="T5" s="207"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="180"/>
+      <c r="J5" s="180"/>
+      <c r="K5" s="180"/>
+      <c r="L5" s="180"/>
+      <c r="M5" s="180"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="180"/>
+      <c r="P5" s="180"/>
+      <c r="Q5" s="180"/>
+      <c r="R5" s="180"/>
+      <c r="S5" s="180"/>
+      <c r="T5" s="180"/>
       <c r="U5" s="42"/>
       <c r="V5" s="43"/>
       <c r="W5" s="44"/>
@@ -6014,7 +6015,7 @@
       <c r="AA5" s="44"/>
       <c r="AB5" s="44"/>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>30</v>
       </c>
@@ -6107,8 +6108,8 @@
         <v>-0.25454094388085396</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
-      <c r="A7" s="193" t="s">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="181" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="70" t="s">
@@ -6132,19 +6133,19 @@
       <c r="H7" s="76">
         <v>18.309999999999999</v>
       </c>
-      <c r="I7" s="195">
+      <c r="I7" s="184">
         <v>25.5</v>
       </c>
       <c r="J7" s="54">
         <v>238</v>
       </c>
-      <c r="K7" s="209">
+      <c r="K7" s="185">
         <v>5.5</v>
       </c>
-      <c r="L7" s="191">
+      <c r="L7" s="186">
         <v>1</v>
       </c>
-      <c r="M7" s="185">
+      <c r="M7" s="187">
         <f>H7/8*I7*K7</f>
         <v>320.9971875</v>
       </c>
@@ -6166,7 +6167,7 @@
         <f>N7/M7</f>
         <v>6.2305841854143972E-2</v>
       </c>
-      <c r="S7" s="187">
+      <c r="S7" s="204">
         <f>(N7+N8)/M7</f>
         <v>0.80374535991845719</v>
       </c>
@@ -6201,8 +6202,8 @@
         <v>0.13518977043297342</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
-      <c r="A8" s="208"/>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="182"/>
       <c r="B8" s="70" t="s">
         <v>33</v>
       </c>
@@ -6224,11 +6225,11 @@
       <c r="H8" s="76">
         <v>18.309999999999999</v>
       </c>
-      <c r="I8" s="195"/>
+      <c r="I8" s="184"/>
       <c r="J8" s="54"/>
-      <c r="K8" s="209"/>
-      <c r="L8" s="191"/>
-      <c r="M8" s="186"/>
+      <c r="K8" s="185"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="188"/>
       <c r="N8" s="77">
         <v>238</v>
       </c>
@@ -6247,7 +6248,7 @@
         <f>N8/M7</f>
         <v>0.7414395180643133</v>
       </c>
-      <c r="S8" s="192"/>
+      <c r="S8" s="205"/>
       <c r="T8" s="81">
         <v>0.10866574965612105</v>
       </c>
@@ -6266,8 +6267,8 @@
       <c r="AA8" s="90"/>
       <c r="AB8" s="90"/>
     </row>
-    <row r="9" spans="1:28">
-      <c r="A9" s="194"/>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="183"/>
       <c r="B9" s="70" t="s">
         <v>37</v>
       </c>
@@ -6289,12 +6290,12 @@
       <c r="H9" s="76">
         <v>27.09</v>
       </c>
-      <c r="I9" s="195"/>
+      <c r="I9" s="184"/>
       <c r="J9" s="54"/>
       <c r="K9" s="91">
         <v>4</v>
       </c>
-      <c r="L9" s="191"/>
+      <c r="L9" s="186"/>
       <c r="M9" s="92">
         <f>H9/8*I7*K9</f>
         <v>345.39749999999998</v>
@@ -6352,7 +6353,7 @@
         <v>-0.67042489261823479</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>40</v>
       </c>
@@ -6444,8 +6445,8 @@
         <v>0.27455833234865218</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
-      <c r="A11" s="193" t="s">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="181" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="70" t="s">
@@ -6469,7 +6470,7 @@
       <c r="H11" s="76">
         <v>26.37</v>
       </c>
-      <c r="I11" s="195">
+      <c r="I11" s="184">
         <v>23</v>
       </c>
       <c r="J11" s="54">
@@ -6478,7 +6479,7 @@
       <c r="K11" s="91">
         <v>3</v>
       </c>
-      <c r="L11" s="191">
+      <c r="L11" s="186">
         <v>1</v>
       </c>
       <c r="M11" s="92">
@@ -6503,7 +6504,7 @@
         <f t="shared" si="3"/>
         <v>2.7831363044302648</v>
       </c>
-      <c r="S11" s="189">
+      <c r="S11" s="195">
         <f>R11*K11/9.5+R12*K12/9.5</f>
         <v>1.0873548547331029</v>
       </c>
@@ -6536,8 +6537,8 @@
         <v>0.62649388717735421</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="194"/>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="183"/>
       <c r="B12" s="70" t="s">
         <v>43</v>
       </c>
@@ -6559,12 +6560,12 @@
       <c r="H12" s="76">
         <v>29.33</v>
       </c>
-      <c r="I12" s="195"/>
+      <c r="I12" s="184"/>
       <c r="J12" s="54"/>
       <c r="K12" s="91">
         <v>6.5</v>
       </c>
-      <c r="L12" s="191"/>
+      <c r="L12" s="186"/>
       <c r="M12" s="92">
         <f>H12/8*I11*K12</f>
         <v>548.10437499999989</v>
@@ -6587,7 +6588,7 @@
         <f t="shared" si="3"/>
         <v>0.30468649333441289</v>
       </c>
-      <c r="S12" s="189"/>
+      <c r="S12" s="195"/>
       <c r="T12" s="81">
         <v>7.8979343863912518E-2</v>
       </c>
@@ -6618,7 +6619,7 @@
         <v>-2.6009159361830219</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>46</v>
       </c>
@@ -6711,7 +6712,7 @@
         <v>0.21709378770216053</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>48</v>
       </c>
@@ -6804,7 +6805,7 @@
         <v>-0.17548418369431359</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>49</v>
       </c>
@@ -6897,7 +6898,7 @@
         <v>4.2957502824638215E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="98" t="s">
         <v>51</v>
       </c>
@@ -6990,7 +6991,7 @@
         <v>-3.4426081650995914E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="98" t="s">
         <v>52</v>
       </c>
@@ -7083,7 +7084,7 @@
         <v>0.10832455249175861</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="98" t="s">
         <v>53</v>
       </c>
@@ -7176,7 +7177,7 @@
         <v>-0.1552242480817683</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="98" t="s">
         <v>54</v>
       </c>
@@ -7271,7 +7272,7 @@
         <v>-0.45626785510307677</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="98" t="s">
         <v>57</v>
       </c>
@@ -7366,7 +7367,7 @@
         <v>0.13001544368127846</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="98" t="s">
         <v>59</v>
       </c>
@@ -7459,7 +7460,7 @@
         <v>-0.14609707910195582</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="98" t="s">
         <v>61</v>
       </c>
@@ -7554,7 +7555,7 @@
         <v>-0.1581612588819763</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="98" t="s">
         <v>64</v>
       </c>
@@ -7647,7 +7648,7 @@
         <v>0.39502701776985133</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="98" t="s">
         <v>65</v>
       </c>
@@ -7740,8 +7741,8 @@
         <v>-0.14257062655087291</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
-      <c r="A25" s="177" t="s">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" s="189" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="70" t="s">
@@ -7765,7 +7766,7 @@
       <c r="H25" s="76">
         <v>25.55</v>
       </c>
-      <c r="I25" s="179">
+      <c r="I25" s="191">
         <v>28.526315789473685</v>
       </c>
       <c r="J25" s="54">
@@ -7774,7 +7775,7 @@
       <c r="K25" s="120">
         <v>1.5</v>
       </c>
-      <c r="L25" s="183">
+      <c r="L25" s="193">
         <v>1</v>
       </c>
       <c r="M25" s="92">
@@ -7796,7 +7797,7 @@
         <v>-7697</v>
       </c>
       <c r="R25" s="90"/>
-      <c r="S25" s="189"/>
+      <c r="S25" s="195"/>
       <c r="T25" s="81">
         <v>0</v>
       </c>
@@ -7828,8 +7829,8 @@
         <v>-5.6644850334860752</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
-      <c r="A26" s="178"/>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26" s="190"/>
       <c r="B26" s="70" t="s">
         <v>33</v>
       </c>
@@ -7851,12 +7852,12 @@
       <c r="H26" s="76">
         <v>25.46</v>
       </c>
-      <c r="I26" s="180"/>
+      <c r="I26" s="192"/>
       <c r="J26" s="54"/>
       <c r="K26" s="120">
         <v>8</v>
       </c>
-      <c r="L26" s="184"/>
+      <c r="L26" s="194"/>
       <c r="M26" s="92">
         <f>H26/8*I25*K26</f>
         <v>726.28000000000009</v>
@@ -7876,7 +7877,7 @@
         <v>-2910</v>
       </c>
       <c r="R26" s="90"/>
-      <c r="S26" s="189"/>
+      <c r="S26" s="195"/>
       <c r="T26" s="81">
         <v>0.20669999999999999</v>
       </c>
@@ -7909,7 +7910,7 @@
         <v>0.44463795777887255</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="98" t="s">
         <v>71</v>
       </c>
@@ -8004,7 +8005,7 @@
         <v>-5.2325200497611831E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="98" t="s">
         <v>74</v>
       </c>
@@ -8096,7 +8097,7 @@
         <v>0.32523083350038695</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="98" t="s">
         <v>75</v>
       </c>
@@ -8189,8 +8190,8 @@
         <v>-0.51133680760697453</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
-      <c r="A30" s="177" t="s">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" s="189" t="s">
         <v>78</v>
       </c>
       <c r="B30" s="70" t="s">
@@ -8214,7 +8215,7 @@
       <c r="H30" s="76">
         <v>34.159999999999997</v>
       </c>
-      <c r="I30" s="179">
+      <c r="I30" s="191">
         <v>24.842105263157894</v>
       </c>
       <c r="J30" s="54">
@@ -8223,7 +8224,7 @@
       <c r="K30" s="120">
         <v>7</v>
       </c>
-      <c r="L30" s="183">
+      <c r="L30" s="193">
         <v>1</v>
       </c>
       <c r="M30" s="92">
@@ -8248,7 +8249,7 @@
         <f t="shared" si="10"/>
         <v>1.0773967825529769</v>
       </c>
-      <c r="S30" s="189">
+      <c r="S30" s="195">
         <f>R30*K30/9.5+R31*K31/9.5</f>
         <v>1.0143310244479051</v>
       </c>
@@ -8282,8 +8283,8 @@
         <v>0.30838548305630981</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
-      <c r="A31" s="178"/>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" s="190"/>
       <c r="B31" s="70" t="s">
         <v>37</v>
       </c>
@@ -8305,12 +8306,12 @@
       <c r="H31" s="76">
         <v>32.29</v>
       </c>
-      <c r="I31" s="180"/>
+      <c r="I31" s="192"/>
       <c r="J31" s="54"/>
       <c r="K31" s="120">
         <v>2.5</v>
       </c>
-      <c r="L31" s="184"/>
+      <c r="L31" s="194"/>
       <c r="M31" s="92">
         <f>H31/8*I30*K31</f>
         <v>250.67236842105262</v>
@@ -8333,7 +8334,7 @@
         <f t="shared" si="10"/>
         <v>0.83774690175370459</v>
       </c>
-      <c r="S31" s="189"/>
+      <c r="S31" s="195"/>
       <c r="T31" s="81"/>
       <c r="U31" s="82"/>
       <c r="V31" s="83"/>
@@ -8362,7 +8363,7 @@
         <v>3.4108055288775592E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="98" t="s">
         <v>80</v>
       </c>
@@ -8454,8 +8455,8 @@
         <v>0.10910672393694129</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
-      <c r="A33" s="190" t="s">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33" s="207" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="70" t="s">
@@ -8479,7 +8480,7 @@
       <c r="H33" s="76">
         <v>20.51</v>
       </c>
-      <c r="I33" s="179">
+      <c r="I33" s="191">
         <v>26.5</v>
       </c>
       <c r="J33" s="54">
@@ -8488,7 +8489,7 @@
       <c r="K33" s="120">
         <v>3.5</v>
       </c>
-      <c r="L33" s="191">
+      <c r="L33" s="186">
         <v>1</v>
       </c>
       <c r="M33" s="92">
@@ -8513,7 +8514,7 @@
         <f t="shared" si="10"/>
         <v>0.71492309976988411</v>
       </c>
-      <c r="S33" s="189">
+      <c r="S33" s="195">
         <f>R33*K33/9.5+R34*K34/9.5</f>
         <v>1.0059899547931561</v>
       </c>
@@ -8548,8 +8549,8 @@
         <v>-0.73593175115228338</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
-      <c r="A34" s="190"/>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" s="207"/>
       <c r="B34" s="70" t="s">
         <v>37</v>
       </c>
@@ -8571,12 +8572,12 @@
       <c r="H34" s="76">
         <v>22.68</v>
       </c>
-      <c r="I34" s="180"/>
+      <c r="I34" s="192"/>
       <c r="J34" s="54"/>
       <c r="K34" s="120">
         <v>6</v>
       </c>
-      <c r="L34" s="191"/>
+      <c r="L34" s="186"/>
       <c r="M34" s="92">
         <f>H34/8*I33*K34</f>
         <v>450.76499999999999</v>
@@ -8599,7 +8600,7 @@
         <f t="shared" si="10"/>
         <v>1.1757789535567313</v>
       </c>
-      <c r="S34" s="189"/>
+      <c r="S34" s="195"/>
       <c r="T34" s="81">
         <v>9.7493036211699163E-2</v>
       </c>
@@ -8629,7 +8630,7 @@
         <v>6.3481461820504292E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="98" t="s">
         <v>85</v>
       </c>
@@ -8722,7 +8723,7 @@
         <v>-3.330770601063901E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="98" t="s">
         <v>87</v>
       </c>
@@ -8817,7 +8818,7 @@
         <v>0.26050035254896431</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="98" t="s">
         <v>91</v>
       </c>
@@ -8912,7 +8913,7 @@
         <v>0.36548258596431504</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="98" t="s">
         <v>94</v>
       </c>
@@ -9009,7 +9010,7 @@
         <v>-2.1966625125954105</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="98" t="s">
         <v>98</v>
       </c>
@@ -9105,8 +9106,8 @@
         <v>8.3802213647197213E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
-      <c r="A40" s="177" t="s">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40" s="189" t="s">
         <v>101</v>
       </c>
       <c r="B40" s="70" t="s">
@@ -9130,19 +9131,19 @@
       <c r="H40" s="76">
         <v>27.14</v>
       </c>
-      <c r="I40" s="179">
+      <c r="I40" s="191">
         <v>26</v>
       </c>
       <c r="J40" s="54">
         <v>250</v>
       </c>
-      <c r="K40" s="181">
+      <c r="K40" s="208">
         <v>9.5</v>
       </c>
-      <c r="L40" s="183">
+      <c r="L40" s="193">
         <v>1</v>
       </c>
-      <c r="M40" s="185">
+      <c r="M40" s="187">
         <f t="shared" si="11"/>
         <v>837.94749999999999</v>
       </c>
@@ -9164,7 +9165,7 @@
         <f t="shared" si="10"/>
         <v>0.27925377186518247</v>
       </c>
-      <c r="S40" s="187">
+      <c r="S40" s="204">
         <f>R40+R41</f>
         <v>0.70410139060024646</v>
       </c>
@@ -9197,8 +9198,8 @@
         <v>-0.26839042693723614</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
-      <c r="A41" s="178"/>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A41" s="190"/>
       <c r="B41" s="70" t="s">
         <v>95</v>
       </c>
@@ -9220,11 +9221,11 @@
       <c r="H41" s="76">
         <v>27.14</v>
       </c>
-      <c r="I41" s="180"/>
+      <c r="I41" s="192"/>
       <c r="J41" s="54"/>
-      <c r="K41" s="182"/>
-      <c r="L41" s="184"/>
-      <c r="M41" s="186"/>
+      <c r="K41" s="209"/>
+      <c r="L41" s="194"/>
+      <c r="M41" s="188"/>
       <c r="N41" s="77">
         <v>356</v>
       </c>
@@ -9243,7 +9244,7 @@
         <f>N41/M40</f>
         <v>0.42484761873506394</v>
       </c>
-      <c r="S41" s="188"/>
+      <c r="S41" s="206"/>
       <c r="T41" s="81">
         <v>5.7333333333333333E-2</v>
       </c>
@@ -9266,7 +9267,7 @@
       <c r="AA41" s="90"/>
       <c r="AB41" s="90"/>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="98" t="s">
         <v>105</v>
       </c>
@@ -9361,7 +9362,7 @@
         <v>0.31841673382430558</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="98" t="s">
         <v>108</v>
       </c>
@@ -9456,7 +9457,7 @@
         <v>0.26181518555179817</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="98" t="s">
         <v>111</v>
       </c>
@@ -9551,7 +9552,7 @@
         <v>0.10835586571859905</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="98" t="s">
         <v>114</v>
       </c>
@@ -9646,7 +9647,7 @@
         <v>0.4110999586333019</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="98" t="s">
         <v>116</v>
       </c>
@@ -9741,7 +9742,7 @@
         <v>0.54387817020736651</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="125" t="s">
         <v>119</v>
       </c>
@@ -9834,7 +9835,7 @@
         <v>0.25877111983606987</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="131" t="s">
         <v>121</v>
       </c>
@@ -9927,7 +9928,7 @@
         <v>-5.7935765324882232E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="131" t="s">
         <v>123</v>
       </c>
@@ -10020,7 +10021,7 @@
         <v>-0.16256677508228812</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="131" t="s">
         <v>126</v>
       </c>
@@ -10113,7 +10114,7 @@
         <v>-0.19316063758445354</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="131" t="s">
         <v>128</v>
       </c>
@@ -10206,7 +10207,7 @@
         <v>0.20654817600633832</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="98" t="s">
         <v>130</v>
       </c>
@@ -10299,7 +10300,7 @@
         <v>0.2238948960450661</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="98" t="s">
         <v>132</v>
       </c>
@@ -10392,7 +10393,7 @@
         <v>-0.37357539157709985</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="98" t="s">
         <v>135</v>
       </c>
@@ -10485,7 +10486,7 @@
         <v>-0.74248243700568817</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="131" t="s">
         <v>137</v>
       </c>
@@ -10578,7 +10579,7 @@
         <v>-0.13836363052501935</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="131" t="s">
         <v>139</v>
       </c>
@@ -10673,7 +10674,7 @@
         <v>-0.3292013461774162</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="139" t="s">
         <v>141</v>
       </c>
@@ -10681,7 +10682,7 @@
         <v>76</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D57" s="48">
         <v>8688</v>
@@ -10741,7 +10742,7 @@
       </c>
       <c r="U57" s="63"/>
       <c r="V57" s="64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="W57" s="65">
         <f t="shared" si="14"/>
@@ -10751,26 +10752,26 @@
         <f>W57/(N57+N58)*12</f>
         <v>0.23815721447070853</v>
       </c>
-      <c r="Y57" s="141">
+      <c r="Y57" s="141" t="e">
         <f>VLOOKUP(C57,'[1]12.12'!C$56:Y$107,23,0)</f>
-        <v>10</v>
-      </c>
-      <c r="Z57" s="142">
+        <v>#N/A</v>
+      </c>
+      <c r="Z57" s="142" t="e">
         <f>N57/12*Y57</f>
-        <v>583.33333333333337</v>
-      </c>
-      <c r="AA57" s="143">
+        <v>#N/A</v>
+      </c>
+      <c r="AA57" s="143" t="e">
         <f>Z57+Z58-W57</f>
-        <v>-227.75075341574302</v>
-      </c>
-      <c r="AB57" s="144">
+        <v>#N/A</v>
+      </c>
+      <c r="AB57" s="144" t="e">
         <f>AA57/(Z57+Z58)</f>
-        <v>-0.39042986299841659</v>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="17.25" thickBot="1">
+    <row r="58" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B58" s="146"/>
       <c r="C58" s="146"/>
@@ -10818,7 +10819,7 @@
       <c r="AA58" s="44"/>
       <c r="AB58" s="44"/>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="156"/>
       <c r="B59" s="157"/>
       <c r="C59" s="157"/>
@@ -10847,20 +10848,20 @@
       </c>
       <c r="X59" s="164"/>
       <c r="Y59" s="165"/>
-      <c r="Z59" s="166">
+      <c r="Z59" s="166" t="e">
         <f>ROUND(SUBTOTAL(9,Z6:Z58),0)</f>
-        <v>42431</v>
-      </c>
-      <c r="AA59" s="166">
+        <v>#N/A</v>
+      </c>
+      <c r="AA59" s="166" t="e">
         <f>ROUND(SUBTOTAL(9,AA6:AA58),0)</f>
-        <v>2628</v>
-      </c>
-      <c r="AB59" s="167">
+        <v>#N/A</v>
+      </c>
+      <c r="AB59" s="167" t="e">
         <f>AA59/Z59</f>
-        <v>6.1935848789799908E-2</v>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="17.25" thickBot="1">
+    <row r="60" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="156"/>
       <c r="B60" s="157"/>
       <c r="C60" s="157"/>
@@ -10888,12 +10889,12 @@
       <c r="Y60" s="170"/>
       <c r="Z60" s="171"/>
       <c r="AA60" s="172"/>
-      <c r="AB60" s="173">
+      <c r="AB60" s="173" t="e">
         <f>(Z59-W59)/Z59</f>
-        <v>6.1959416464377456E-2</v>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="156"/>
       <c r="B61" s="157"/>
       <c r="C61" s="157"/>
@@ -10940,25 +10941,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="W3:AB3"/>
-    <mergeCell ref="B5:T5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="S11:S12"/>
     <mergeCell ref="S40:S41"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="I30:I31"/>
@@ -10973,6 +10955,25 @@
     <mergeCell ref="K40:K41"/>
     <mergeCell ref="L40:L41"/>
     <mergeCell ref="M40:M41"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="B5:T5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
